--- a/etl/data/input/Datos_carga_mensual_demo.xlsx
+++ b/etl/data/input/Datos_carga_mensual_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Defunciones meses" sheetId="1" state="visible" r:id="rId2"/>
@@ -421,8 +421,8 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1514,7 +1514,7 @@
   </sheetPr>
   <dimension ref="A1:BR18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1632,141 +1632,141 @@
       <c r="AJ1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="11" t="e">
-        <f aca="false">+#REF!&amp;T1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL1" s="11" t="e">
-        <f aca="false">+#REF!&amp;U1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM1" s="11" t="e">
-        <f aca="false">+#REF!&amp;V1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AN1" s="11" t="e">
-        <f aca="false">+#REF!&amp;W1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO1" s="11" t="e">
-        <f aca="false">+#REF!&amp;X1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP1" s="11" t="e">
-        <f aca="false">+#REF!&amp;Y1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ1" s="11" t="e">
-        <f aca="false">+#REF!&amp;Z1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AR1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AA1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AS1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AB1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AC1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AU1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AD1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AV1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AE1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AW1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AF1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AX1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AG1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AH1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AI1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AJ1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB1" s="11" t="e">
-        <f aca="false">+#REF!&amp;T1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BC1" s="11" t="e">
-        <f aca="false">+#REF!&amp;U1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BD1" s="11" t="e">
-        <f aca="false">+#REF!&amp;V1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BE1" s="11" t="e">
-        <f aca="false">+#REF!&amp;W1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BF1" s="11" t="e">
-        <f aca="false">+#REF!&amp;X1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BG1" s="11" t="e">
-        <f aca="false">+#REF!&amp;Y1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BH1" s="11" t="e">
-        <f aca="false">+#REF!&amp;Z1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BI1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AA1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AB1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BK1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AC1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BL1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AD1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BM1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AE1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BN1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AF1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BO1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AG1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BP1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AH1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AI1&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BR1" s="11" t="e">
-        <f aca="false">+#REF!&amp;AJ1&amp;#REF!</f>
-        <v>#REF!</v>
+      <c r="AK1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;T1&amp;"_Cantabria"</f>
+        <v>TM_    001-008  I.Enfermedades infecciosas y parasitarias_Cantabria</v>
+      </c>
+      <c r="AL1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;U1&amp;"_Cantabria"</f>
+        <v>TM_    009-041  II.Tumores_Cantabria</v>
+      </c>
+      <c r="AM1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;V1&amp;"_Cantabria"</f>
+        <v>TM_    042-043  III.Enfermedades de la sangre y de los órganos hematopoyéticos, y ciertos trastornos que afectan al mecanismo de la inmunidad_Cantabria</v>
+      </c>
+      <c r="AN1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;W1&amp;"_Cantabria"</f>
+        <v>TM_    044-045  IV.Enfermedades endocrinas, nutricionales y metabólicas_Cantabria</v>
+      </c>
+      <c r="AO1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;X1&amp;"_Cantabria"</f>
+        <v>TM_    046-049  V.Trastornos mentales y del comportamiento_Cantabria</v>
+      </c>
+      <c r="AP1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;Y1&amp;"_Cantabria"</f>
+        <v>TM_    050-052  VI-VIII.Enfermedades del sistema nervioso y de los órganos de los sentidos_Cantabria</v>
+      </c>
+      <c r="AQ1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;Z1&amp;"_Cantabria"</f>
+        <v>TM_    053-061 IX.Enfermedades del sistema circulatorio_Cantabria</v>
+      </c>
+      <c r="AR1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AA1&amp;"_Cantabria"</f>
+        <v>TM_    062-067  X.Enfermedades del sistema respiratorio_Cantabria</v>
+      </c>
+      <c r="AS1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AB1&amp;"_Cantabria"</f>
+        <v>TM_    068-072  XI.Enfermedades del sistema digestivo_Cantabria</v>
+      </c>
+      <c r="AT1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AC1&amp;"_Cantabria"</f>
+        <v>TM_    073  XII.Enfermedades de la piel y del tejido subcutáneo_Cantabria</v>
+      </c>
+      <c r="AU1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AD1&amp;"_Cantabria"</f>
+        <v>TM_    074-076  XIII.Enfermedades del sistema osteomuscular y del tejido conjuntivo_Cantabria</v>
+      </c>
+      <c r="AV1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AE1&amp;"_Cantabria"</f>
+        <v>TM_    077-080  XIV.Enfermedades del sistema genitourinario_Cantabria</v>
+      </c>
+      <c r="AW1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AF1&amp;"_Cantabria"</f>
+        <v>TM_    081  XV.Embarazo, parto y puerperio_Cantabria</v>
+      </c>
+      <c r="AX1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AG1&amp;"_Cantabria"</f>
+        <v>TM_    082  XVI.Afecciones originadas en el periodo perinatal_Cantabria</v>
+      </c>
+      <c r="AY1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AH1&amp;"_Cantabria"</f>
+        <v>TM_    083-085  XVII.Malformaciones congénitas, deformidades y anomalías cromosómicas_Cantabria</v>
+      </c>
+      <c r="AZ1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AI1&amp;"_Cantabria"</f>
+        <v>TM_    086-089  XVIII.Síntomas, signos y hallazgos anormales clínicos y de laboratorio, no clasificados en otra parte_Cantabria</v>
+      </c>
+      <c r="BA1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AJ1&amp;"_Cantabria"</f>
+        <v>TM_    090-102  XX.Causas externas de mortalidad_Cantabria</v>
+      </c>
+      <c r="BB1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;T1&amp;"_España"</f>
+        <v>TM_    001-008  I.Enfermedades infecciosas y parasitarias_España</v>
+      </c>
+      <c r="BC1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;U1&amp;"_España"</f>
+        <v>TM_    009-041  II.Tumores_España</v>
+      </c>
+      <c r="BD1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;V1&amp;"_España"</f>
+        <v>TM_    042-043  III.Enfermedades de la sangre y de los órganos hematopoyéticos, y ciertos trastornos que afectan al mecanismo de la inmunidad_España</v>
+      </c>
+      <c r="BE1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;W1&amp;"_España"</f>
+        <v>TM_    044-045  IV.Enfermedades endocrinas, nutricionales y metabólicas_España</v>
+      </c>
+      <c r="BF1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;X1&amp;"_España"</f>
+        <v>TM_    046-049  V.Trastornos mentales y del comportamiento_España</v>
+      </c>
+      <c r="BG1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;Y1&amp;"_España"</f>
+        <v>TM_    050-052  VI-VIII.Enfermedades del sistema nervioso y de los órganos de los sentidos_España</v>
+      </c>
+      <c r="BH1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;Z1&amp;"_España"</f>
+        <v>TM_    053-061 IX.Enfermedades del sistema circulatorio_España</v>
+      </c>
+      <c r="BI1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AA1&amp;"_España"</f>
+        <v>TM_    062-067  X.Enfermedades del sistema respiratorio_España</v>
+      </c>
+      <c r="BJ1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AB1&amp;"_España"</f>
+        <v>TM_    068-072  XI.Enfermedades del sistema digestivo_España</v>
+      </c>
+      <c r="BK1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AC1&amp;"_España"</f>
+        <v>TM_    073  XII.Enfermedades de la piel y del tejido subcutáneo_España</v>
+      </c>
+      <c r="BL1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AD1&amp;"_España"</f>
+        <v>TM_    074-076  XIII.Enfermedades del sistema osteomuscular y del tejido conjuntivo_España</v>
+      </c>
+      <c r="BM1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AE1&amp;"_España"</f>
+        <v>TM_    077-080  XIV.Enfermedades del sistema genitourinario_España</v>
+      </c>
+      <c r="BN1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AF1&amp;"_España"</f>
+        <v>TM_    081  XV.Embarazo, parto y puerperio_España</v>
+      </c>
+      <c r="BO1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AG1&amp;"_España"</f>
+        <v>TM_    082  XVI.Afecciones originadas en el periodo perinatal_España</v>
+      </c>
+      <c r="BP1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AH1&amp;"_España"</f>
+        <v>TM_    083-085  XVII.Malformaciones congénitas, deformidades y anomalías cromosómicas_España</v>
+      </c>
+      <c r="BQ1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AI1&amp;"_España"</f>
+        <v>TM_    086-089  XVIII.Síntomas, signos y hallazgos anormales clínicos y de laboratorio, no clasificados en otra parte_España</v>
+      </c>
+      <c r="BR1" s="11" t="str">
+        <f aca="false">+"TM_"&amp;AJ1&amp;"_España"</f>
+        <v>TM_    090-102  XX.Causas externas de mortalidad_España</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4205,8 +4205,8 @@
   </sheetPr>
   <dimension ref="A1:BR18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/etl/data/input/Datos_carga_mensual_demo.xlsx
+++ b/etl/data/input/Datos_carga_mensual_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Defunciones meses" sheetId="1" state="visible" r:id="rId2"/>
@@ -638,8 +638,8 @@
   </sheetPr>
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2432,7 +2432,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3105,8 +3105,8 @@
   </sheetPr>
   <dimension ref="A1:CJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BR1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BS2" activeCellId="0" sqref="BS2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL1" activeCellId="0" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6886,7 +6886,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9908,7 +9908,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/etl/data/input/Datos_carga_mensual_demo.xlsx
+++ b/etl/data/input/Datos_carga_mensual_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Defunciones meses" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,9 @@
     <sheet name="Causas_muerte_respiratorias" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Causas_media_movil3m_respirator" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -81,7 +84,7 @@
     <t xml:space="preserve">TMortalidad_Mujeres_España</t>
   </si>
   <si>
-    <t xml:space="preserve">TMortalidad_Cantabria_MM</t>
+    <t xml:space="preserve">Tmortalidad_Cantabria_MM</t>
   </si>
   <si>
     <t xml:space="preserve">Tmortalidad_Hombres_TOTAL_Cantabria_MM</t>
@@ -539,10 +542,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,6 +551,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,12 +634,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Defunciones meses"/>
+      <sheetName val="Defun_meses_media_movil_3meses"/>
+      <sheetName val="Causas de muerte meses"/>
+      <sheetName val="Causas_media_móvil_3meses_Canta"/>
+      <sheetName val="Causas_muerte_respiratorias"/>
+      <sheetName val="Causas_media_movil3m_respirator"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>Tmortalidad_Hombres_TOTAL_Cantabria_MM</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Tmortalidad_Mujeres_TOTAL_Cantabria_MM</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Tmortalidad_Hombres_Cantabria_MM</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>Tmortalidad_Mujeres_Cantabria_MM</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>Tmortalidad_España_MM</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>Tmortalidad_Hombres_TOTAL_España_MM</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>Tmortalidad_Mujeres_TOTAL_España_MM</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>Tmortalidad_Hombres_España_MM</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>Tmortalidad_Mujeres_España_MM</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
@@ -706,42 +762,42 @@
       </c>
       <c r="S1" s="3" t="str">
         <f aca="false">Defun_meses_media_movil_3meses!C1</f>
-        <v>TMortalidad_Cantabria_MM</v>
+        <v>Tmortalidad_Cantabria_MM</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f aca="false">Defun_meses_media_movil_3meses!D1</f>
+        <f aca="false">[1]Defun_meses_media_movil_3meses!D1</f>
         <v>Tmortalidad_Hombres_TOTAL_Cantabria_MM</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f aca="false">Defun_meses_media_movil_3meses!E1</f>
+        <f aca="false">[1]Defun_meses_media_movil_3meses!E1</f>
         <v>Tmortalidad_Mujeres_TOTAL_Cantabria_MM</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f aca="false">Defun_meses_media_movil_3meses!F1</f>
+        <f aca="false">[1]Defun_meses_media_movil_3meses!F1</f>
         <v>Tmortalidad_Hombres_Cantabria_MM</v>
       </c>
       <c r="W1" s="3" t="str">
-        <f aca="false">Defun_meses_media_movil_3meses!G1</f>
+        <f aca="false">[1]Defun_meses_media_movil_3meses!G1</f>
         <v>Tmortalidad_Mujeres_Cantabria_MM</v>
       </c>
       <c r="X1" s="3" t="str">
-        <f aca="false">Defun_meses_media_movil_3meses!H1</f>
+        <f aca="false">[1]Defun_meses_media_movil_3meses!H1</f>
         <v>Tmortalidad_España_MM</v>
       </c>
       <c r="Y1" s="3" t="str">
-        <f aca="false">Defun_meses_media_movil_3meses!I1</f>
+        <f aca="false">[1]Defun_meses_media_movil_3meses!I1</f>
         <v>Tmortalidad_Hombres_TOTAL_España_MM</v>
       </c>
       <c r="Z1" s="3" t="str">
-        <f aca="false">Defun_meses_media_movil_3meses!J1</f>
+        <f aca="false">[1]Defun_meses_media_movil_3meses!J1</f>
         <v>Tmortalidad_Mujeres_TOTAL_España_MM</v>
       </c>
       <c r="AA1" s="3" t="str">
-        <f aca="false">Defun_meses_media_movil_3meses!K1</f>
+        <f aca="false">[1]Defun_meses_media_movil_3meses!K1</f>
         <v>Tmortalidad_Hombres_España_MM</v>
       </c>
       <c r="AB1" s="3" t="str">
-        <f aca="false">Defun_meses_media_movil_3meses!L1</f>
+        <f aca="false">[1]Defun_meses_media_movil_3meses!L1</f>
         <v>Tmortalidad_Mujeres_España_MM</v>
       </c>
     </row>
@@ -800,16 +856,6 @@
       <c r="R2" s="6" t="n">
         <v>102.421930409911</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -866,43 +912,43 @@
       <c r="R3" s="6" t="n">
         <v>83.7505225008812</v>
       </c>
-      <c r="S3" s="6" t="n">
+      <c r="S3" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C2</f>
         <v>105.742443615942</v>
       </c>
-      <c r="T3" s="6" t="n">
+      <c r="T3" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D2</f>
         <v>54.4490390621428</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="U3" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E2</f>
         <v>51.2934045537994</v>
       </c>
-      <c r="V3" s="6" t="n">
+      <c r="V3" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F2</f>
         <v>111.642622130359</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="W3" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G2</f>
         <v>100.12539650732</v>
       </c>
-      <c r="X3" s="6" t="n">
+      <c r="X3" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H2</f>
         <v>90.9067939578263</v>
       </c>
-      <c r="Y3" s="6" t="n">
+      <c r="Y3" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I2</f>
         <v>45.1334658974539</v>
       </c>
-      <c r="Z3" s="6" t="n">
+      <c r="Z3" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J2</f>
         <v>45.7733280603724</v>
       </c>
-      <c r="AA3" s="6" t="n">
+      <c r="AA3" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K2</f>
         <v>92.0506995502786</v>
       </c>
-      <c r="AB3" s="6" t="n">
+      <c r="AB3" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L2</f>
         <v>89.806379035052</v>
       </c>
@@ -962,43 +1008,43 @@
       <c r="R4" s="6" t="n">
         <v>83.2466841943637</v>
       </c>
-      <c r="S4" s="6" t="n">
+      <c r="S4" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C3</f>
         <v>91.9150269521104</v>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="T4" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D3</f>
         <v>46.24438934045</v>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="U4" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E3</f>
         <v>45.6706376116603</v>
       </c>
-      <c r="V4" s="6" t="n">
+      <c r="V4" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F3</f>
         <v>94.8197612614005</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="W4" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G3</f>
         <v>89.149681901372</v>
       </c>
-      <c r="X4" s="6" t="n">
+      <c r="X4" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H3</f>
         <v>81.6655293863557</v>
       </c>
-      <c r="Y4" s="6" t="n">
+      <c r="Y4" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I3</f>
         <v>40.9732918348668</v>
       </c>
-      <c r="Z4" s="6" t="n">
+      <c r="Z4" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J3</f>
         <v>40.6922375514889</v>
       </c>
-      <c r="AA4" s="6" t="n">
+      <c r="AA4" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K3</f>
         <v>83.5659327570049</v>
       </c>
-      <c r="AB4" s="6" t="n">
+      <c r="AB4" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L3</f>
         <v>79.8373783202615</v>
       </c>
@@ -1058,43 +1104,43 @@
       <c r="R5" s="6" t="n">
         <v>72.5149282655397</v>
       </c>
-      <c r="S5" s="6" t="n">
+      <c r="S5" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C4</f>
         <v>86.6938862201241</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="T5" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D4</f>
         <v>44.465758981202</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="U5" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E4</f>
         <v>42.2281272389221</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="V5" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F4</f>
         <v>91.1728473667313</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="W5" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G4</f>
         <v>82.4298566324243</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="X5" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H4</f>
         <v>77.1465474442279</v>
       </c>
-      <c r="Y5" s="6" t="n">
+      <c r="Y5" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I4</f>
         <v>39.0237452448375</v>
       </c>
-      <c r="Z5" s="6" t="n">
+      <c r="Z5" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J4</f>
         <v>38.1228021993904</v>
       </c>
-      <c r="AA5" s="6" t="n">
+      <c r="AA5" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K4</f>
         <v>79.5897894706507</v>
       </c>
-      <c r="AB5" s="6" t="n">
+      <c r="AB5" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L4</f>
         <v>74.7961961533831</v>
       </c>
@@ -1154,43 +1200,43 @@
       <c r="R6" s="6" t="n">
         <v>68.6269760002458</v>
       </c>
-      <c r="S6" s="6" t="n">
+      <c r="S6" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C5</f>
         <v>82.0464972169275</v>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="T6" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D5</f>
         <v>41.9986265474063</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E5</f>
         <v>40.0478706695213</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="V6" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F5</f>
         <v>86.1142248676739</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="W6" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G5</f>
         <v>78.1739672954242</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="X6" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H5</f>
         <v>71.5811019647517</v>
       </c>
-      <c r="Y6" s="6" t="n">
+      <c r="Y6" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I5</f>
         <v>36.4136497552959</v>
       </c>
-      <c r="Z6" s="6" t="n">
+      <c r="Z6" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J5</f>
         <v>35.1674522094558</v>
       </c>
-      <c r="AA6" s="6" t="n">
+      <c r="AA6" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K5</f>
         <v>74.266442128986</v>
       </c>
-      <c r="AB6" s="6" t="n">
+      <c r="AB6" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L5</f>
         <v>68.9978569758768</v>
       </c>
@@ -1250,43 +1296,43 @@
       <c r="R7" s="6" t="n">
         <v>65.851666661845</v>
       </c>
-      <c r="S7" s="6" t="n">
+      <c r="S7" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C6</f>
         <v>80.2104916848004</v>
       </c>
-      <c r="T7" s="6" t="n">
+      <c r="T7" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D6</f>
         <v>40.8511230898269</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="U7" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E6</f>
         <v>39.3593685949736</v>
       </c>
-      <c r="V7" s="6" t="n">
+      <c r="V7" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F6</f>
         <v>83.7613771936938</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="W7" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G6</f>
         <v>76.8300022416346</v>
       </c>
-      <c r="X7" s="6" t="n">
+      <c r="X7" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H6</f>
         <v>69.6258486887655</v>
       </c>
-      <c r="Y7" s="6" t="n">
+      <c r="Y7" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I6</f>
         <v>35.5298267677195</v>
       </c>
-      <c r="Z7" s="6" t="n">
+      <c r="Z7" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J6</f>
         <v>34.096021921046</v>
       </c>
-      <c r="AA7" s="6" t="n">
+      <c r="AA7" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K6</f>
         <v>72.4638656446125</v>
       </c>
-      <c r="AB7" s="6" t="n">
+      <c r="AB7" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L6</f>
         <v>66.8957315970175</v>
       </c>
@@ -1346,43 +1392,43 @@
       <c r="R8" s="6" t="n">
         <v>66.2085521289616</v>
       </c>
-      <c r="S8" s="6" t="n">
+      <c r="S8" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C7</f>
         <v>77.9154847696416</v>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="T8" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D7</f>
         <v>39.0151175576998</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="U8" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E7</f>
         <v>38.9003672119418</v>
       </c>
-      <c r="V8" s="6" t="n">
+      <c r="V8" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F7</f>
         <v>79.9968209153255</v>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="W8" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G7</f>
         <v>75.9340255391083</v>
       </c>
-      <c r="X8" s="6" t="n">
+      <c r="X8" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H7</f>
         <v>69.4517947670798</v>
       </c>
-      <c r="Y8" s="6" t="n">
+      <c r="Y8" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I7</f>
         <v>35.3222460660369</v>
       </c>
-      <c r="Z8" s="6" t="n">
+      <c r="Z8" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J7</f>
         <v>34.1295487010428</v>
       </c>
-      <c r="AA8" s="6" t="n">
+      <c r="AA8" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K7</f>
         <v>72.0405002233432</v>
       </c>
-      <c r="AB8" s="6" t="n">
+      <c r="AB8" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L7</f>
         <v>66.961510487035</v>
       </c>
@@ -1442,43 +1488,43 @@
       <c r="R9" s="6" t="n">
         <v>68.8243126702986</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C8</f>
         <v>77.6859840781257</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D8</f>
         <v>38.9003672119418</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E8</f>
         <v>38.7856168661839</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F8</f>
         <v>79.7615361479275</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G8</f>
         <v>75.7100313634767</v>
       </c>
-      <c r="X9" s="6" t="n">
+      <c r="X9" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H8</f>
         <v>68.2555307233626</v>
       </c>
-      <c r="Y9" s="6" t="n">
+      <c r="Y9" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I8</f>
         <v>34.9520248145824</v>
       </c>
-      <c r="Z9" s="6" t="n">
+      <c r="Z9" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J8</f>
         <v>33.3035059087802</v>
       </c>
-      <c r="AA9" s="6" t="n">
+      <c r="AA9" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K8</f>
         <v>71.2854258122134</v>
       </c>
-      <c r="AB9" s="6" t="n">
+      <c r="AB9" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L8</f>
         <v>65.3408306010702</v>
       </c>
@@ -1538,43 +1584,43 @@
       <c r="R10" s="6" t="n">
         <v>60.9896270039505</v>
       </c>
-      <c r="S10" s="6" t="n">
+      <c r="S10" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C9</f>
         <v>78.8908627085841</v>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="T10" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D9</f>
         <v>39.9331203237633</v>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="U10" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E9</f>
         <v>38.9577423848208</v>
       </c>
-      <c r="V10" s="6" t="n">
+      <c r="V10" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F9</f>
         <v>81.8790990545096</v>
       </c>
-      <c r="W10" s="6" t="n">
+      <c r="W10" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G9</f>
         <v>76.0460226269241</v>
       </c>
-      <c r="X10" s="6" t="n">
+      <c r="X10" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H9</f>
         <v>68.7291856577861</v>
       </c>
-      <c r="Y10" s="6" t="n">
+      <c r="Y10" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I9</f>
         <v>35.209539018388</v>
       </c>
-      <c r="Z10" s="6" t="n">
+      <c r="Z10" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J9</f>
         <v>33.5196466393981</v>
       </c>
-      <c r="AA10" s="6" t="n">
+      <c r="AA10" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K9</f>
         <v>71.8106317128258</v>
       </c>
-      <c r="AB10" s="6" t="n">
+      <c r="AB10" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L9</f>
         <v>65.7648945090558</v>
       </c>
@@ -1634,43 +1680,43 @@
       <c r="R11" s="6" t="n">
         <v>67.4807438529184</v>
       </c>
-      <c r="S11" s="6" t="n">
+      <c r="S11" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C10</f>
         <v>80.7268682407112</v>
       </c>
-      <c r="T11" s="6" t="n">
+      <c r="T11" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D10</f>
         <v>40.8511230898268</v>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="U11" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E10</f>
         <v>39.8757451508843</v>
       </c>
-      <c r="V11" s="6" t="n">
+      <c r="V11" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F10</f>
         <v>83.7613771936938</v>
       </c>
-      <c r="W11" s="6" t="n">
+      <c r="W11" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G10</f>
         <v>77.8379760319768</v>
       </c>
-      <c r="X11" s="6" t="n">
+      <c r="X11" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H10</f>
         <v>69.5573684572826</v>
       </c>
-      <c r="Y11" s="6" t="n">
+      <c r="Y11" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I10</f>
         <v>35.7138673898299</v>
       </c>
-      <c r="Z11" s="6" t="n">
+      <c r="Z11" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J10</f>
         <v>33.8435010674527</v>
       </c>
-      <c r="AA11" s="6" t="n">
+      <c r="AA11" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K10</f>
         <v>72.8392205541915</v>
       </c>
-      <c r="AB11" s="6" t="n">
+      <c r="AB11" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L10</f>
         <v>66.4002905956085</v>
       </c>
@@ -1730,43 +1776,43 @@
       <c r="R12" s="6" t="n">
         <v>70.7305009299567</v>
       </c>
-      <c r="S12" s="6" t="n">
+      <c r="S12" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C11</f>
         <v>84.2841289592073</v>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="T12" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D11</f>
         <v>42.2281272389221</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="U12" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E11</f>
         <v>42.0560017202852</v>
       </c>
-      <c r="V12" s="6" t="n">
+      <c r="V12" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F11</f>
         <v>86.58479440247</v>
       </c>
-      <c r="W12" s="6" t="n">
+      <c r="W12" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G11</f>
         <v>82.0938653689769</v>
       </c>
-      <c r="X12" s="6" t="n">
+      <c r="X12" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H11</f>
         <v>74.365251375979</v>
       </c>
-      <c r="Y12" s="6" t="n">
+      <c r="Y12" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I11</f>
         <v>37.8966747683478</v>
       </c>
-      <c r="Z12" s="6" t="n">
+      <c r="Z12" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J11</f>
         <v>36.4685766076312</v>
       </c>
-      <c r="AA12" s="6" t="n">
+      <c r="AA12" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K11</f>
         <v>77.2911043654771</v>
       </c>
-      <c r="AB12" s="6" t="n">
+      <c r="AB12" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L11</f>
         <v>71.5506377288991</v>
       </c>
@@ -1826,45 +1872,45 @@
       <c r="R13" s="6" t="n">
         <v>76.4406684038223</v>
       </c>
-      <c r="S13" s="6" t="n">
+      <c r="S13" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C12</f>
         <v>95.9801314507843</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="T13" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D12</f>
         <v>46.2709303853234</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="U13" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E12</f>
         <v>49.7092010654609</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="V13" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F12</f>
         <v>94.9036112068856</v>
       </c>
-      <c r="W13" s="6" t="n">
+      <c r="W13" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G12</f>
         <v>97.0027160189973</v>
       </c>
-      <c r="X13" s="6" t="n">
+      <c r="X13" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H12</f>
-        <v>82.3521271793285</v>
-      </c>
-      <c r="Y13" s="6" t="n">
+        <v>82.4724375628333</v>
+      </c>
+      <c r="Y13" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I12</f>
-        <v>41.5925763769638</v>
-      </c>
-      <c r="Z13" s="6" t="n">
+        <v>41.6668857314815</v>
+      </c>
+      <c r="Z13" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J12</f>
-        <v>40.7595508023647</v>
-      </c>
-      <c r="AA13" s="6" t="n">
+        <v>40.8055518313518</v>
+      </c>
+      <c r="AA13" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K12</f>
-        <v>84.8351432148958</v>
-      </c>
-      <c r="AB13" s="6" t="n">
+        <v>84.9867279951001</v>
+      </c>
+      <c r="AB13" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L12</f>
-        <v>79.9637160006401</v>
+        <v>80.053952396056</v>
       </c>
     </row>
     <row r="14" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,13 +1930,13 @@
         <v>364</v>
       </c>
       <c r="F14" s="8" t="n">
-        <v>44426</v>
+        <v>44596</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>22163</v>
+        <v>22268</v>
       </c>
       <c r="H14" s="8" t="n">
-        <v>22263</v>
+        <v>22328</v>
       </c>
       <c r="I14" s="9" t="n">
         <v>117.536130901811</v>
@@ -1908,59 +1954,59 @@
         <v>122.004542542959</v>
       </c>
       <c r="N14" s="9" t="n">
-        <v>94.3219252515107</v>
+        <v>94.6828564020252</v>
       </c>
       <c r="O14" s="9" t="n">
-        <v>47.0548064050158</v>
+        <v>47.2777344685689</v>
       </c>
       <c r="P14" s="9" t="n">
-        <v>47.2671188464949</v>
+        <v>47.4051219334564</v>
       </c>
       <c r="Q14" s="9" t="n">
-        <v>95.9878138191163</v>
+        <v>96.4425681597293</v>
       </c>
       <c r="R14" s="9" t="n">
-        <v>92.7199786681413</v>
-      </c>
-      <c r="S14" s="6" t="n">
+        <v>92.9906878543889</v>
+      </c>
+      <c r="S14" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C13</f>
-        <v>99.4857450048712</v>
-      </c>
-      <c r="T14" s="6" t="n">
+        <v>99.6003026373291</v>
+      </c>
+      <c r="T14" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D13</f>
-        <v>48.3674100597406</v>
-      </c>
-      <c r="U14" s="6" t="n">
+        <v>48.4819676921985</v>
+      </c>
+      <c r="U14" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E13</f>
         <v>51.1183349451306</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="V14" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F13</f>
-        <v>99.2274446285282</v>
-      </c>
-      <c r="W14" s="6" t="n">
+        <v>99.4625181931874</v>
+      </c>
+      <c r="W14" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G13</f>
         <v>99.7315583552395</v>
       </c>
-      <c r="X14" s="6" t="n">
+      <c r="X14" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H13</f>
-        <v>84.3796745703538</v>
-      </c>
-      <c r="Y14" s="6" t="n">
+        <v>84.6662963663506</v>
+      </c>
+      <c r="Y14" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I13</f>
-        <v>42.4693601012171</v>
-      </c>
-      <c r="Z14" s="6" t="n">
+        <v>42.6243481834968</v>
+      </c>
+      <c r="Z14" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J13</f>
-        <v>41.9103144691367</v>
-      </c>
-      <c r="AA14" s="6" t="n">
+        <v>42.0419481828538</v>
+      </c>
+      <c r="AA14" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K13</f>
-        <v>86.6286127906192</v>
-      </c>
-      <c r="AB14" s="6" t="n">
+        <v>86.9447753321883</v>
+      </c>
+      <c r="AB14" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L13</f>
-        <v>82.2167034820489</v>
+        <v>82.474918398162</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,92 +2017,92 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>262</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>37476</v>
+        <v>37711</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18870</v>
+        <v>18984</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18606</v>
+        <v>18727</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>92.1043364961562</v>
+        <v>92.4480093935299</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>47.0831869401993</v>
+        <v>47.426859837573</v>
       </c>
       <c r="K15" s="6" t="n">
         <v>45.021149555957</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>96.6152350749227</v>
+        <v>97.3204557689002</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>87.8164564457561</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>79.5662105687124</v>
+        <v>80.0651448061883</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>40.0633577071086</v>
+        <v>40.3053938903948</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>39.5028528616038</v>
+        <v>39.7597509157935</v>
       </c>
       <c r="Q15" s="6" t="n">
-        <v>81.7258514987467</v>
+        <v>82.2195847828409</v>
       </c>
       <c r="R15" s="6" t="n">
-        <v>77.4894633741831</v>
-      </c>
-      <c r="S15" s="6" t="n">
+        <v>77.9933989362747</v>
+      </c>
+      <c r="S15" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C14</f>
-        <v>97.6031028541357</v>
-      </c>
-      <c r="T15" s="6" t="n">
+        <v>97.7176604865936</v>
+      </c>
+      <c r="T15" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D14</f>
-        <v>47.9423691836335</v>
-      </c>
-      <c r="U15" s="6" t="n">
+        <v>47.9996479998625</v>
+      </c>
+      <c r="U15" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E14</f>
-        <v>49.6607336705021</v>
-      </c>
-      <c r="V15" s="6" t="n">
+        <v>49.7180124867311</v>
+      </c>
+      <c r="V15" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F14</f>
-        <v>98.3782868098665</v>
-      </c>
-      <c r="W15" s="6" t="n">
+        <v>98.4958235921961</v>
+      </c>
+      <c r="W15" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G14</f>
-        <v>96.8662439420744</v>
-      </c>
-      <c r="X15" s="6" t="n">
+        <v>96.9779697136339</v>
+      </c>
+      <c r="X15" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H14</f>
-        <v>83.9808939352014</v>
-      </c>
-      <c r="Y15" s="6" t="n">
+        <v>84.4635508854972</v>
+      </c>
+      <c r="Y15" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I14</f>
-        <v>42.2445141892374</v>
-      </c>
-      <c r="Z15" s="6" t="n">
+        <v>42.5070739085332</v>
+      </c>
+      <c r="Z15" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J14</f>
-        <v>41.736379745964</v>
-      </c>
-      <c r="AA15" s="6" t="n">
+        <v>41.956476976964</v>
+      </c>
+      <c r="AA15" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K14</f>
-        <v>86.1752257138879</v>
-      </c>
-      <c r="AB15" s="6" t="n">
+        <v>86.7108252706099</v>
+      </c>
+      <c r="AB15" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L14</f>
-        <v>81.8707874346819</v>
+        <v>82.3025338804408</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,89 +2116,89 @@
         <v>484</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36764</v>
+        <v>37041</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>18659</v>
+        <v>18811</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>18105</v>
+        <v>18230</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>83.1688411644396</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>41.7562570309066</v>
+        <v>41.5844205822198</v>
       </c>
       <c r="K16" s="6" t="n">
-        <v>41.4125841335329</v>
+        <v>41.5844205822198</v>
       </c>
       <c r="L16" s="6" t="n">
-        <v>85.6843143182708</v>
+        <v>85.3317039712821</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>80.7777328375084</v>
+        <v>81.1129101521869</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>78.0545459853811</v>
+        <v>78.6426514482782</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>39.6153784555877</v>
+        <v>39.9380933666359</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>38.4391675297934</v>
+        <v>38.7045580816423</v>
       </c>
       <c r="Q16" s="6" t="n">
-        <v>80.8120118238005</v>
+        <v>81.4703228692594</v>
       </c>
       <c r="R16" s="6" t="n">
-        <v>75.4029202617212</v>
-      </c>
-      <c r="S16" s="6" t="n">
+        <v>75.9235148506588</v>
+      </c>
+      <c r="S16" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C15</f>
-        <v>86.3764548732609</v>
-      </c>
-      <c r="T16" s="6" t="n">
+        <v>86.4910125057188</v>
+      </c>
+      <c r="T16" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D15</f>
-        <v>43.2455062528594</v>
-      </c>
-      <c r="U16" s="6" t="n">
+        <v>43.3027850690884</v>
+      </c>
+      <c r="U16" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E15</f>
-        <v>43.1309486204015</v>
-      </c>
-      <c r="V16" s="6" t="n">
+        <v>43.1882274366305</v>
+      </c>
+      <c r="V16" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F15</f>
-        <v>88.7402706588401</v>
-      </c>
-      <c r="W16" s="6" t="n">
+        <v>88.8578074411698</v>
+      </c>
+      <c r="W16" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G15</f>
-        <v>84.129505984293</v>
-      </c>
-      <c r="X16" s="6" t="n">
+        <v>84.2412317558525</v>
+      </c>
+      <c r="X16" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H15</f>
-        <v>76.4289403917894</v>
-      </c>
-      <c r="Y16" s="6" t="n">
+        <v>77.0927706254807</v>
+      </c>
+      <c r="Y16" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I15</f>
-        <v>38.7597593164269</v>
-      </c>
-      <c r="Z16" s="6" t="n">
+        <v>39.1242290076327</v>
+      </c>
+      <c r="Z16" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J15</f>
-        <v>37.6691810753625</v>
-      </c>
-      <c r="AA16" s="6" t="n">
+        <v>37.968541617848</v>
+      </c>
+      <c r="AA16" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K15</f>
-        <v>79.0666213545904</v>
-      </c>
-      <c r="AB16" s="6" t="n">
+        <v>79.8101086098784</v>
+      </c>
+      <c r="AB16" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L15</f>
-        <v>73.8925018276836</v>
+        <v>74.4797325240052</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,13 +2218,13 @@
         <v>250</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33755</v>
+        <v>34181</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17239</v>
+        <v>17488</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16516</v>
+        <v>16693</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>83.856186959187</v>
@@ -2196,59 +2242,59 @@
         <v>83.7943286696146</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>71.6660646212746</v>
+        <v>72.5705156219756</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>36.6005417865843</v>
+        <v>37.1291997658673</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>35.0655228346903</v>
+        <v>35.4413158561083</v>
       </c>
       <c r="Q17" s="6" t="n">
-        <v>74.6620007412239</v>
+        <v>75.7404181775349</v>
       </c>
       <c r="R17" s="6" t="n">
-        <v>68.7851218471465</v>
-      </c>
-      <c r="S17" s="6" t="n">
+        <v>69.5222837850821</v>
+      </c>
+      <c r="S17" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C16</f>
-        <v>84.4862539377055</v>
-      </c>
-      <c r="T17" s="6" t="n">
+        <v>84.6580903863923</v>
+      </c>
+      <c r="T17" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D16</f>
-        <v>41.8135358471356</v>
-      </c>
-      <c r="U17" s="6" t="n">
+        <v>41.9280934795935</v>
+      </c>
+      <c r="U17" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E16</f>
-        <v>42.6727180905699</v>
-      </c>
-      <c r="V17" s="6" t="n">
+        <v>42.7299969067988</v>
+      </c>
+      <c r="V17" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F16</f>
-        <v>85.8018511006004</v>
-      </c>
-      <c r="W17" s="6" t="n">
+        <v>86.0369246652596</v>
+      </c>
+      <c r="W17" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G16</f>
-        <v>83.2356998118171</v>
-      </c>
-      <c r="X17" s="6" t="n">
+        <v>83.3474255833766</v>
+      </c>
+      <c r="X17" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H16</f>
-        <v>73.4247193448599</v>
-      </c>
-      <c r="Y17" s="6" t="n">
+        <v>74.3624326280593</v>
+      </c>
+      <c r="Y17" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I16</f>
-        <v>37.3337274178255</v>
-      </c>
-      <c r="Z17" s="6" t="n">
+        <v>37.863800813385</v>
+      </c>
+      <c r="Z17" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J16</f>
-        <v>36.0909919270344</v>
-      </c>
-      <c r="AA17" s="6" t="n">
+        <v>36.4986318146743</v>
+      </c>
+      <c r="AA17" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K16</f>
-        <v>76.1576372392402</v>
-      </c>
-      <c r="AB17" s="6" t="n">
+        <v>77.2389420046979</v>
+      </c>
+      <c r="AB17" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L16</f>
-        <v>70.7966993388014</v>
+        <v>71.5963326274095</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,92 +2305,92 @@
         <v>5</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>254</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33231</v>
+        <v>33853</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16855</v>
+        <v>17203</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16376</v>
+        <v>16650</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>86.4337336894899</v>
+        <v>86.9492430355504</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>42.7872757230278</v>
+        <v>43.3027850690884</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>43.6464579664621</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>87.7999764002034</v>
+        <v>88.8578074411698</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>85.1350379283284</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>70.553547427924</v>
+        <v>71.8741308139241</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>35.7852620113045</v>
+        <v>36.5241093076518</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>34.7682854166195</v>
+        <v>35.3500215062723</v>
       </c>
       <c r="Q18" s="6" t="n">
-        <v>72.9988991526962</v>
+        <v>74.5060849672994</v>
       </c>
       <c r="R18" s="6" t="n">
-        <v>68.2020559075364</v>
-      </c>
-      <c r="S18" s="6" t="n">
+        <v>69.3431992464876</v>
+      </c>
+      <c r="S18" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!C17</f>
-        <v>82.8251682670659</v>
-      </c>
-      <c r="T18" s="6" t="n">
+        <v>83.1115623482106</v>
+      </c>
+      <c r="T18" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!D17</f>
-        <v>42.0999299282804</v>
-      </c>
-      <c r="U18" s="6" t="n">
+        <v>42.3290451931962</v>
+      </c>
+      <c r="U18" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!E17</f>
-        <v>40.7252383387855</v>
-      </c>
-      <c r="V18" s="6" t="n">
+        <v>40.7825171550144</v>
+      </c>
+      <c r="V18" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!F17</f>
-        <v>86.3895350122484</v>
-      </c>
-      <c r="W18" s="6" t="n">
+        <v>86.8596821415667</v>
+      </c>
+      <c r="W18" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!G17</f>
-        <v>79.4370235787946</v>
-      </c>
-      <c r="X18" s="6" t="n">
+        <v>79.5487493503541</v>
+      </c>
+      <c r="X18" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!H17</f>
-        <v>68.5146402815863</v>
-      </c>
-      <c r="Y18" s="6" t="n">
+        <v>70.6943813474385</v>
+      </c>
+      <c r="Y18" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!I17</f>
-        <v>34.9055807954427</v>
-      </c>
-      <c r="Z18" s="6" t="n">
+        <v>36.0803763049605</v>
+      </c>
+      <c r="Z18" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!J17</f>
-        <v>33.6090594861436</v>
-      </c>
-      <c r="AA18" s="6" t="n">
+        <v>34.6140050424781</v>
+      </c>
+      <c r="AA18" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!K17</f>
-        <v>71.2044240879913</v>
-      </c>
-      <c r="AB18" s="6" t="n">
+        <v>73.6009072797935</v>
+      </c>
+      <c r="AB18" s="1" t="n">
         <f aca="false">Defun_meses_media_movil_3meses!L17</f>
-        <v>65.928098743057</v>
+        <v>67.899416919834</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,63 +2401,629 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29826</v>
+        <v>31858</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>15228</v>
+        <v>16291</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>14598</v>
+        <v>15567</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>78.1855841525207</v>
+        <v>78.5292570498944</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>42.6154392743409</v>
+        <v>42.7872757230278</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>35.5701448781797</v>
+        <v>35.7419813268666</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>87.4473660532147</v>
+        <v>87.7999764002034</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>69.3817041384409</v>
+        <v>69.7168814531193</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>63.3243087955602</v>
+        <v>67.6384976064158</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>32.3309385884393</v>
+        <v>34.5878198413623</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>30.9933702071209</v>
+        <v>33.0506777650535</v>
       </c>
       <c r="Q19" s="6" t="n">
-        <v>65.9523723700538</v>
+        <v>70.556218694546</v>
       </c>
       <c r="R19" s="6" t="n">
-        <v>60.797118474488</v>
-      </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
+        <v>64.8327677279323</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!C18</f>
+        <v>82.9970047157527</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!D18</f>
+        <v>43.1309486204015</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!E18</f>
+        <v>39.8660560953512</v>
+      </c>
+      <c r="V19" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!F18</f>
+        <v>88.505197094181</v>
+      </c>
+      <c r="W19" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!G18</f>
+        <v>77.7611370054023</v>
+      </c>
+      <c r="X19" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!H18</f>
+        <v>70.2322479331523</v>
+      </c>
+      <c r="Y19" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!I18</f>
+        <v>35.6465512162048</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!J18</f>
+        <v>34.5856967169475</v>
+      </c>
+      <c r="AA19" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!K18</f>
+        <v>72.7159408963147</v>
+      </c>
+      <c r="AB19" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!L18</f>
+        <v>67.8438868303473</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>486</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>252</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>234</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>33528</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>16875</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>16653</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>83.5125140618133</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>43.3027850690884</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>40.2097289927249</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <v>88.8578074411698</v>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>78.4314916347592</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>71.184115379117</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>35.8277244996003</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>35.3563908795167</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>73.0855190270986</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>69.3556935166221</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!C19</f>
+        <v>80.6485732503656</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!D19</f>
+        <v>42.6727180905699</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!E19</f>
+        <v>37.9758551597957</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!F19</f>
+        <v>87.5649028355443</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!G19</f>
+        <v>74.0741865439393</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!H19</f>
+        <v>68.6611358662069</v>
+      </c>
+      <c r="Y20" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!I19</f>
+        <v>34.8376408141694</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!J19</f>
+        <v>33.8234950520375</v>
+      </c>
+      <c r="AA20" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!K19</f>
+        <v>71.0658322889473</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!L19</f>
+        <v>66.3487391709185</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>31633</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>16060</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>15573</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>79.9039486393892</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>41.9280934795935</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>37.9758551597957</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>86.0369246652596</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>74.0741865439393</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>67.1607946130878</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>34.0973781015455</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>33.0634165115423</v>
+      </c>
+      <c r="Q21" s="6" t="n">
+        <v>69.5557591451973</v>
+      </c>
+      <c r="R21" s="6" t="n">
+        <v>64.8577562682013</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!C20</f>
+        <v>80.0185062718472</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!D20</f>
+        <v>41.0689112361592</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!E20</f>
+        <v>38.9495950356879</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!F20</f>
+        <v>84.2738729303158</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!G20</f>
+        <v>75.9735246604506</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!H20</f>
+        <v>67.2577506280299</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!I20</f>
+        <v>34.1964572409025</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!J20</f>
+        <v>33.0612933871275</v>
+      </c>
+      <c r="AA21" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!K20</f>
+        <v>69.7578721854698</v>
+      </c>
+      <c r="AB21" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!L20</f>
+        <v>64.8535915114898</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>29875</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>15385</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>14490</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>76.6390561143389</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>37.9758551597957</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <v>38.6632009545432</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <v>77.9268866845179</v>
+      </c>
+      <c r="M22" s="6" t="n">
+        <v>75.4148958026531</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>63.428341891885</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>32.6642691215615</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>30.7640727703235</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>66.6323383841133</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>60.347324749646</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!C21</f>
+        <v>78.4146994174365</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!D21</f>
+        <v>40.2097289927249</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!E21</f>
+        <v>38.2049704247116</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!F21</f>
+        <v>82.5108211953719</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!G21</f>
+        <v>74.5210896301772</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!H21</f>
+        <v>66.6519524616762</v>
+      </c>
+      <c r="Y22" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!I21</f>
+        <v>34.0513770725584</v>
+      </c>
+      <c r="Z22" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!J21</f>
+        <v>32.6005753891178</v>
+      </c>
+      <c r="AA22" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!K21</f>
+        <v>69.4619209479279</v>
+      </c>
+      <c r="AB22" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!L21</f>
+        <v>63.9498393050941</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>32672</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>16670</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>16002</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>78.7010934985812</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>40.7252383387855</v>
+      </c>
+      <c r="K23" s="6" t="n">
+        <v>37.9758551597957</v>
+      </c>
+      <c r="L23" s="6" t="n">
+        <v>83.5686522363382</v>
+      </c>
+      <c r="M23" s="6" t="n">
+        <v>74.0741865439393</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>69.3667208800558</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>35.3924839945681</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>33.9742368854877</v>
+      </c>
+      <c r="Q23" s="6" t="n">
+        <v>72.1976653144731</v>
+      </c>
+      <c r="R23" s="6" t="n">
+        <v>66.6444368974351</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!C22</f>
+        <v>81.1068037801973</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!D22</f>
+        <v>40.8397959712434</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!E22</f>
+        <v>40.2670078089539</v>
+      </c>
+      <c r="V23" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!F22</f>
+        <v>83.8037258009974</v>
+      </c>
+      <c r="W23" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!G22</f>
+        <v>78.5432174063187</v>
+      </c>
+      <c r="X23" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!H22</f>
+        <v>68.7679997950847</v>
+      </c>
+      <c r="Y23" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!I22</f>
+        <v>35.258019448298</v>
+      </c>
+      <c r="Z23" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!J22</f>
+        <v>33.5099803467867</v>
+      </c>
+      <c r="AA23" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!K22</f>
+        <v>71.9233690455319</v>
+      </c>
+      <c r="AB23" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!L22</f>
+        <v>65.7337434298536</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>34623</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>17765</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>16858</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>87.9802617276716</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>43.8182944151489</v>
+      </c>
+      <c r="K24" s="6" t="n">
+        <v>44.1619673125227</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <v>89.9156384821361</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>86.1405698723638</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>73.5089366133133</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>37.7173052287644</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>35.7916313845489</v>
+      </c>
+      <c r="Q24" s="6" t="n">
+        <v>76.9401034380093</v>
+      </c>
+      <c r="R24" s="6" t="n">
+        <v>70.2094686424798</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!C23</f>
+        <v>83.4552352455843</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!D23</f>
+        <v>41.2407476848461</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!E23</f>
+        <v>42.2144875607383</v>
+      </c>
+      <c r="V24" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!F23</f>
+        <v>84.6264832773045</v>
+      </c>
+      <c r="W24" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!G23</f>
+        <v>82.3418936393412</v>
+      </c>
+      <c r="X24" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!H23</f>
+        <v>73.1409283814162</v>
+      </c>
+      <c r="Y24" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!I23</f>
+        <v>37.3252349201663</v>
+      </c>
+      <c r="Z24" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!J23</f>
+        <v>35.8156934612498</v>
+      </c>
+      <c r="AA24" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!K23</f>
+        <v>76.1403132643597</v>
+      </c>
+      <c r="AB24" s="1" t="n">
+        <f aca="false">Defun_meses_media_movil_3meses!L23</f>
+        <v>70.2566692185434</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>36054</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>18306</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>17748</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>83.6843505105001</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <v>39.1787103006038</v>
+      </c>
+      <c r="K25" s="6" t="n">
+        <v>44.5056402098964</v>
+      </c>
+      <c r="L25" s="6" t="n">
+        <v>80.3951591134393</v>
+      </c>
+      <c r="M25" s="6" t="n">
+        <v>86.8109245017207</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>76.5471276508794</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>38.8659155371664</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>37.681212113713</v>
+      </c>
+      <c r="Q25" s="6" t="n">
+        <v>79.2831710405966</v>
+      </c>
+      <c r="R25" s="6" t="n">
+        <v>73.9161021157154</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2429,15 +3041,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2881,19 +3493,19 @@
         <v>97.0027160189973</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>82.3521271793285</v>
+        <v>82.4724375628333</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>41.5925763769638</v>
+        <v>41.6668857314815</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>40.7595508023647</v>
+        <v>40.8055518313518</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>84.8351432148958</v>
+        <v>84.9867279951001</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>79.9637160006401</v>
+        <v>80.053952396056</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,34 +3516,34 @@
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>99.4857450048712</v>
+        <v>99.6003026373291</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>48.3674100597406</v>
+        <v>48.4819676921985</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>51.1183349451306</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>99.2274446285282</v>
+        <v>99.4625181931874</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>99.7315583552395</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>84.3796745703538</v>
+        <v>84.6662963663506</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>42.4693601012171</v>
+        <v>42.6243481834968</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>41.9103144691367</v>
+        <v>42.0419481828538</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>86.6286127906192</v>
+        <v>86.9447753321883</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>82.2167034820489</v>
+        <v>82.474918398162</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,34 +3554,34 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>97.6031028541357</v>
+        <v>97.7176604865936</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>47.9423691836335</v>
+        <v>47.9996479998625</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>49.6607336705021</v>
+        <v>49.7180124867311</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>98.3782868098665</v>
+        <v>98.4958235921961</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>96.8662439420744</v>
+        <v>96.9779697136339</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>83.9808939352014</v>
+        <v>84.4635508854972</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>42.2445141892374</v>
+        <v>42.5070739085332</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>41.736379745964</v>
+        <v>41.956476976964</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>86.1752257138879</v>
+        <v>86.7108252706099</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>81.8707874346819</v>
+        <v>82.3025338804408</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,34 +3592,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>86.3764548732609</v>
+        <v>86.4910125057188</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>43.2455062528594</v>
+        <v>43.3027850690884</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>43.1309486204015</v>
+        <v>43.1882274366305</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>88.7402706588401</v>
+        <v>88.8578074411698</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>84.129505984293</v>
+        <v>84.2412317558525</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>76.4289403917894</v>
+        <v>77.0927706254807</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>38.7597593164269</v>
+        <v>39.1242290076327</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>37.6691810753625</v>
+        <v>37.968541617848</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>79.0666213545904</v>
+        <v>79.8101086098784</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>73.8925018276836</v>
+        <v>74.4797325240052</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,34 +3630,34 @@
         <v>4</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>84.4862539377055</v>
+        <v>84.6580903863923</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>41.8135358471356</v>
+        <v>41.9280934795935</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>42.6727180905699</v>
+        <v>42.7299969067988</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>85.8018511006004</v>
+        <v>86.0369246652596</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>83.2356998118171</v>
+        <v>83.3474255833766</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>73.4247193448599</v>
+        <v>74.3624326280593</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>37.3337274178255</v>
+        <v>37.863800813385</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>36.0909919270344</v>
+        <v>36.4986318146743</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>76.1576372392402</v>
+        <v>77.2389420046979</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>70.7966993388014</v>
+        <v>71.5963326274095</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3056,37 +3668,264 @@
         <v>5</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>82.8251682670659</v>
+        <v>83.1115623482106</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>42.0999299282804</v>
+        <v>42.3290451931962</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>40.7252383387855</v>
+        <v>40.7825171550144</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>86.3895350122484</v>
+        <v>86.8596821415667</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>79.4370235787946</v>
+        <v>79.5487493503541</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>68.5146402815863</v>
+        <v>70.6943813474385</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>34.9055807954427</v>
+        <v>36.0803763049605</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>33.6090594861436</v>
+        <v>34.6140050424781</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>71.2044240879913</v>
+        <v>73.6009072797935</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>65.928098743057</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>67.899416919834</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>82.9970047157527</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>43.1309486204015</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>39.8660560953512</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>88.505197094181</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>77.7611370054023</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>70.2322479331523</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>35.6465512162048</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>34.5856967169475</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>72.7159408963147</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>67.8438868303473</v>
+      </c>
+    </row>
+    <row r="19" s="11" customFormat="true" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <v>80.6485732503656</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>42.6727180905699</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>37.9758551597957</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <v>87.5649028355443</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <v>74.0741865439393</v>
+      </c>
+      <c r="H19" s="11" t="n">
+        <v>68.6611358662069</v>
+      </c>
+      <c r="I19" s="11" t="n">
+        <v>34.8376408141694</v>
+      </c>
+      <c r="J19" s="11" t="n">
+        <v>33.8234950520375</v>
+      </c>
+      <c r="K19" s="11" t="n">
+        <v>71.0658322889473</v>
+      </c>
+      <c r="L19" s="11" t="n">
+        <v>66.3487391709185</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>80.0185062718472</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>41.0689112361592</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>38.9495950356879</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>84.2738729303158</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>75.9735246604506</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>67.2577506280299</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>34.1964572409025</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>33.0612933871275</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>69.7578721854698</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>64.8535915114898</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>78.4146994174365</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>40.2097289927249</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>38.2049704247116</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>82.5108211953719</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>74.5210896301772</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>66.6519524616762</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>34.0513770725584</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>32.6005753891178</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>69.4619209479279</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>63.9498393050941</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>81.1068037801973</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>40.8397959712434</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>40.2670078089539</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>83.8037258009974</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>78.5432174063187</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>68.7679997950847</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>35.258019448298</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>33.5099803467867</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>71.9233690455319</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>65.7337434298536</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>83.4552352455843</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>41.2407476848461</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>42.2144875607383</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>84.6264832773045</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>82.3418936393412</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>73.1409283814162</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>37.3252349201663</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>35.8156934612498</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>76.1403132643597</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>70.2566692185434</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3103,10 +3942,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CJ18"/>
+  <dimension ref="A1:CI18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL1" activeCellId="0" sqref="AL1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BQ3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BS18" activeCellId="0" sqref="BS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3394,7 +4233,7 @@
         <v>TM_090-102 Media móvil centrada (3 meses)</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>2018</v>
       </c>
@@ -3515,23 +4354,6 @@
       <c r="BP2" s="13"/>
       <c r="BQ2" s="13"/>
       <c r="BR2" s="13"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -3804,7 +4626,6 @@
         <f aca="false">Causas_media_móvil_3meses_Canta!S2</f>
         <v>2.58188277955366</v>
       </c>
-      <c r="CJ3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -5843,74 +6664,74 @@
       <c r="S14" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="AK14" s="16" t="n">
+      <c r="AK14" s="15" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="AL14" s="16" t="n">
+      <c r="AL14" s="15" t="n">
         <v>24.2289392648471</v>
       </c>
-      <c r="AM14" s="16" t="n">
+      <c r="AM14" s="15" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="AN14" s="16" t="n">
+      <c r="AN14" s="15" t="n">
         <v>4.46774766585832</v>
       </c>
-      <c r="AO14" s="16" t="n">
+      <c r="AO14" s="15" t="n">
         <v>11.3412056133327</v>
       </c>
-      <c r="AP14" s="16" t="n">
+      <c r="AP14" s="15" t="n">
         <v>7.73264019090864</v>
       </c>
-      <c r="AQ14" s="16" t="n">
+      <c r="AQ14" s="15" t="n">
         <v>30.7587243149477</v>
       </c>
-      <c r="AR14" s="16" t="n">
+      <c r="AR14" s="15" t="n">
         <v>18.0428271121202</v>
       </c>
-      <c r="AS14" s="16" t="n">
+      <c r="AS14" s="15" t="n">
         <v>5.15509346060576</v>
       </c>
-      <c r="AT14" s="16" t="n">
+      <c r="AT14" s="15" t="n">
         <v>0.343672897373717</v>
       </c>
-      <c r="AU14" s="16" t="n">
+      <c r="AU14" s="15" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="AV14" s="16" t="n">
+      <c r="AV14" s="15" t="n">
         <v>3.26489252505031</v>
       </c>
-      <c r="AW14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="16" t="n">
+      <c r="AW14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="15" t="n">
         <v>1.89020093555544</v>
       </c>
-      <c r="BA14" s="16" t="n">
+      <c r="BA14" s="15" t="n">
         <v>2.9212196276766</v>
       </c>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="16"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="16"/>
-      <c r="BF14" s="16"/>
-      <c r="BG14" s="16"/>
-      <c r="BH14" s="16"/>
-      <c r="BI14" s="16"/>
-      <c r="BJ14" s="16"/>
-      <c r="BK14" s="16"/>
-      <c r="BL14" s="16"/>
-      <c r="BM14" s="16"/>
-      <c r="BN14" s="16"/>
-      <c r="BO14" s="16"/>
-      <c r="BP14" s="16"/>
-      <c r="BQ14" s="16"/>
-      <c r="BR14" s="16"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="15"/>
+      <c r="BO14" s="15"/>
+      <c r="BP14" s="15"/>
+      <c r="BQ14" s="15"/>
+      <c r="BR14" s="15"/>
       <c r="BS14" s="14" t="n">
         <f aca="false">Causas_media_móvil_3meses_Canta!C13</f>
         <v>1.37517337274496</v>
@@ -6849,23 +7670,23 @@
       <c r="BP18" s="13"/>
       <c r="BQ18" s="13"/>
       <c r="BR18" s="13"/>
-      <c r="BS18" s="15"/>
-      <c r="BT18" s="15"/>
-      <c r="BU18" s="15"/>
-      <c r="BV18" s="15"/>
-      <c r="BW18" s="15"/>
-      <c r="BX18" s="15"/>
-      <c r="BY18" s="15"/>
-      <c r="BZ18" s="15"/>
-      <c r="CA18" s="15"/>
-      <c r="CB18" s="15"/>
-      <c r="CC18" s="15"/>
-      <c r="CD18" s="15"/>
-      <c r="CE18" s="15"/>
-      <c r="CF18" s="15"/>
-      <c r="CG18" s="15"/>
-      <c r="CH18" s="15"/>
-      <c r="CI18" s="15"/>
+      <c r="BS18" s="14"/>
+      <c r="BT18" s="14"/>
+      <c r="BU18" s="14"/>
+      <c r="BV18" s="14"/>
+      <c r="BW18" s="14"/>
+      <c r="BX18" s="14"/>
+      <c r="BY18" s="14"/>
+      <c r="BZ18" s="14"/>
+      <c r="CA18" s="14"/>
+      <c r="CB18" s="14"/>
+      <c r="CC18" s="14"/>
+      <c r="CD18" s="14"/>
+      <c r="CE18" s="14"/>
+      <c r="CF18" s="14"/>
+      <c r="CG18" s="14"/>
+      <c r="CH18" s="14"/>
+      <c r="CI18" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6891,7 +7712,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6960,55 +7781,55 @@
       <c r="B2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="16" t="n">
         <v>0.975377938942494</v>
       </c>
-      <c r="D2" s="17" t="n">
+      <c r="D2" s="16" t="n">
         <v>26.8515809073581</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="16" t="n">
         <v>0.516376555910732</v>
       </c>
-      <c r="F2" s="17" t="n">
+      <c r="F2" s="16" t="n">
         <v>2.46713243379572</v>
       </c>
-      <c r="G2" s="17" t="n">
+      <c r="G2" s="16" t="n">
         <v>8.83577662336142</v>
       </c>
-      <c r="H2" s="17" t="n">
+      <c r="H2" s="16" t="n">
         <v>6.82764557259746</v>
       </c>
-      <c r="I2" s="17" t="n">
+      <c r="I2" s="16" t="n">
         <v>27.5974581547847</v>
       </c>
-      <c r="J2" s="17" t="n">
+      <c r="J2" s="16" t="n">
         <v>19.278058087334</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="16" t="n">
         <v>4.2457627930438</v>
       </c>
-      <c r="L2" s="17" t="n">
+      <c r="L2" s="16" t="n">
         <v>0.114750345757941</v>
       </c>
-      <c r="M2" s="17" t="n">
+      <c r="M2" s="16" t="n">
         <v>1.03275311182146</v>
       </c>
-      <c r="N2" s="17" t="n">
+      <c r="N2" s="16" t="n">
         <v>2.29500691515881</v>
       </c>
-      <c r="O2" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="17" t="n">
+      <c r="O2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="16" t="n">
         <v>0.114750345757941</v>
       </c>
-      <c r="Q2" s="17" t="n">
+      <c r="Q2" s="16" t="n">
         <v>0.0573751728789703</v>
       </c>
-      <c r="R2" s="17" t="n">
+      <c r="R2" s="16" t="n">
         <v>1.95075587788499</v>
       </c>
-      <c r="S2" s="17" t="n">
+      <c r="S2" s="16" t="n">
         <v>2.58188277955366</v>
       </c>
     </row>
@@ -7019,55 +7840,55 @@
       <c r="B3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="16" t="n">
         <v>1.09012828470044</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="16" t="n">
         <v>25.6467022768997</v>
       </c>
-      <c r="E3" s="17" t="n">
+      <c r="E3" s="16" t="n">
         <v>0.286875864394851</v>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="16" t="n">
         <v>2.29500691515881</v>
       </c>
-      <c r="G3" s="17" t="n">
+      <c r="G3" s="16" t="n">
         <v>8.08989937593481</v>
       </c>
-      <c r="H3" s="17" t="n">
+      <c r="H3" s="16" t="n">
         <v>5.16376555910732</v>
       </c>
-      <c r="I3" s="17" t="n">
+      <c r="I3" s="16" t="n">
         <v>24.2123229549255</v>
       </c>
-      <c r="J3" s="17" t="n">
+      <c r="J3" s="16" t="n">
         <v>13.0815394164052</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="K3" s="16" t="n">
         <v>3.49988554561719</v>
       </c>
-      <c r="L3" s="17" t="n">
+      <c r="L3" s="16" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="M3" s="17" t="n">
+      <c r="M3" s="16" t="n">
         <v>1.20487863045838</v>
       </c>
-      <c r="N3" s="17" t="n">
+      <c r="N3" s="16" t="n">
         <v>2.46713243379572</v>
       </c>
-      <c r="O3" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="17" t="n">
+      <c r="O3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="16" t="n">
         <v>0.114750345757941</v>
       </c>
-      <c r="Q3" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="17" t="n">
+      <c r="Q3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16" t="n">
         <v>2.18025656940087</v>
       </c>
-      <c r="S3" s="17" t="n">
+      <c r="S3" s="16" t="n">
         <v>2.40975726091675</v>
       </c>
     </row>
@@ -7078,55 +7899,55 @@
       <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="16" t="n">
         <v>1.03275311182146</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="16" t="n">
         <v>24.2696981278044</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="E4" s="16" t="n">
         <v>0.344251037273822</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="16" t="n">
         <v>2.40975726091675</v>
       </c>
-      <c r="G4" s="17" t="n">
+      <c r="G4" s="16" t="n">
         <v>7.68827316578202</v>
       </c>
-      <c r="H4" s="17" t="n">
+      <c r="H4" s="16" t="n">
         <v>5.10639038622835</v>
       </c>
-      <c r="I4" s="17" t="n">
+      <c r="I4" s="16" t="n">
         <v>23.4664457074988</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="16" t="n">
         <v>10.2127807724567</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="16" t="n">
         <v>3.09825933546439</v>
       </c>
-      <c r="L4" s="17" t="n">
+      <c r="L4" s="16" t="n">
         <v>0.344251037273822</v>
       </c>
-      <c r="M4" s="17" t="n">
+      <c r="M4" s="16" t="n">
         <v>1.37700414909529</v>
       </c>
-      <c r="N4" s="17" t="n">
+      <c r="N4" s="16" t="n">
         <v>2.63925795243263</v>
       </c>
-      <c r="O4" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="17" t="n">
+      <c r="O4" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16" t="n">
         <v>0.114750345757941</v>
       </c>
-      <c r="Q4" s="17" t="n">
+      <c r="Q4" s="16" t="n">
         <v>0.114750345757941</v>
       </c>
-      <c r="R4" s="17" t="n">
+      <c r="R4" s="16" t="n">
         <v>2.06550622364293</v>
       </c>
-      <c r="S4" s="17" t="n">
+      <c r="S4" s="16" t="n">
         <v>2.40975726091675</v>
       </c>
     </row>
@@ -7137,55 +7958,55 @@
       <c r="B5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="16" t="n">
         <v>1.09012828470044</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="16" t="n">
         <v>23.4664457074988</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="16" t="n">
         <v>0.286875864394851</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="16" t="n">
         <v>1.5491296677322</v>
       </c>
-      <c r="G5" s="17" t="n">
+      <c r="G5" s="16" t="n">
         <v>8.03252420305584</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="H5" s="16" t="n">
         <v>5.27851590486527</v>
       </c>
-      <c r="I5" s="17" t="n">
+      <c r="I5" s="16" t="n">
         <v>21.4583146567349</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="16" t="n">
         <v>8.31940006745069</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="16" t="n">
         <v>3.27038485410131</v>
       </c>
-      <c r="L5" s="17" t="n">
+      <c r="L5" s="16" t="n">
         <v>0.344251037273822</v>
       </c>
-      <c r="M5" s="17" t="n">
+      <c r="M5" s="16" t="n">
         <v>1.37700414909529</v>
       </c>
-      <c r="N5" s="17" t="n">
+      <c r="N5" s="16" t="n">
         <v>2.63925795243263</v>
       </c>
-      <c r="O5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17" t="n">
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
         <v>0.114750345757941</v>
       </c>
-      <c r="Q5" s="17" t="n">
+      <c r="Q5" s="16" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="R5" s="17" t="n">
+      <c r="R5" s="16" t="n">
         <v>2.1228813965219</v>
       </c>
-      <c r="S5" s="17" t="n">
+      <c r="S5" s="16" t="n">
         <v>2.52450760667469</v>
       </c>
     </row>
@@ -7196,55 +8017,55 @@
       <c r="B6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="16" t="n">
         <v>1.09012828470044</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="16" t="n">
         <v>23.236945015983</v>
       </c>
-      <c r="E6" s="17" t="n">
+      <c r="E6" s="16" t="n">
         <v>0.286875864394851</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="16" t="n">
         <v>1.66388001349014</v>
       </c>
-      <c r="G6" s="17" t="n">
+      <c r="G6" s="16" t="n">
         <v>7.80302351153996</v>
       </c>
-      <c r="H6" s="17" t="n">
+      <c r="H6" s="16" t="n">
         <v>5.45064142350218</v>
       </c>
-      <c r="I6" s="17" t="n">
+      <c r="I6" s="16" t="n">
         <v>21.8025656940087</v>
       </c>
-      <c r="J6" s="17" t="n">
+      <c r="J6" s="16" t="n">
         <v>7.05714626411334</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="16" t="n">
         <v>3.61463589137513</v>
       </c>
-      <c r="L6" s="17" t="n">
+      <c r="L6" s="16" t="n">
         <v>0.573751728789703</v>
       </c>
-      <c r="M6" s="17" t="n">
+      <c r="M6" s="16" t="n">
         <v>1.20487863045838</v>
       </c>
-      <c r="N6" s="17" t="n">
+      <c r="N6" s="16" t="n">
         <v>1.72125518636911</v>
       </c>
-      <c r="O6" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="17" t="n">
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
         <v>0.0573751728789703</v>
       </c>
-      <c r="Q6" s="17" t="n">
+      <c r="Q6" s="16" t="n">
         <v>0.229500691515881</v>
       </c>
-      <c r="R6" s="17" t="n">
+      <c r="R6" s="16" t="n">
         <v>1.89338070500602</v>
       </c>
-      <c r="S6" s="17" t="n">
+      <c r="S6" s="16" t="n">
         <v>2.52450760667469</v>
       </c>
     </row>
@@ -7255,55 +8076,55 @@
       <c r="B7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="16" t="n">
         <v>1.14750345757941</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="16" t="n">
         <v>23.5811960532568</v>
       </c>
-      <c r="E7" s="17" t="n">
+      <c r="E7" s="16" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="F7" s="17" t="n">
+      <c r="F7" s="16" t="n">
         <v>1.66388001349014</v>
       </c>
-      <c r="G7" s="17" t="n">
+      <c r="G7" s="16" t="n">
         <v>8.26202489457172</v>
       </c>
-      <c r="H7" s="17" t="n">
+      <c r="H7" s="16" t="n">
         <v>4.8195145218335</v>
       </c>
-      <c r="I7" s="17" t="n">
+      <c r="I7" s="16" t="n">
         <v>19.5649339517289</v>
       </c>
-      <c r="J7" s="17" t="n">
+      <c r="J7" s="16" t="n">
         <v>7.40139730138717</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="16" t="n">
         <v>3.27038485410131</v>
       </c>
-      <c r="L7" s="17" t="n">
+      <c r="L7" s="16" t="n">
         <v>0.344251037273822</v>
       </c>
-      <c r="M7" s="17" t="n">
+      <c r="M7" s="16" t="n">
         <v>1.09012828470044</v>
       </c>
-      <c r="N7" s="17" t="n">
+      <c r="N7" s="16" t="n">
         <v>1.72125518636911</v>
       </c>
-      <c r="O7" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17" t="n">
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
         <v>0.0573751728789703</v>
       </c>
-      <c r="Q7" s="17" t="n">
+      <c r="Q7" s="16" t="n">
         <v>0.229500691515881</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="16" t="n">
         <v>2.00813105076396</v>
       </c>
-      <c r="S7" s="17" t="n">
+      <c r="S7" s="16" t="n">
         <v>2.58188277955366</v>
       </c>
     </row>
@@ -7314,55 +8135,55 @@
       <c r="B8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="16" t="n">
         <v>1.09012828470044</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="16" t="n">
         <v>23.4664457074988</v>
       </c>
-      <c r="E8" s="17" t="n">
+      <c r="E8" s="16" t="n">
         <v>0.286875864394851</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="16" t="n">
         <v>2.1228813965219</v>
       </c>
-      <c r="G8" s="17" t="n">
+      <c r="G8" s="16" t="n">
         <v>7.57352282002408</v>
       </c>
-      <c r="H8" s="17" t="n">
+      <c r="H8" s="16" t="n">
         <v>4.53263865743865</v>
       </c>
-      <c r="I8" s="17" t="n">
+      <c r="I8" s="16" t="n">
         <v>18.9911822229392</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="16" t="n">
         <v>7.9177738572979</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="16" t="n">
         <v>3.49988554561719</v>
       </c>
-      <c r="L8" s="17" t="n">
+      <c r="L8" s="16" t="n">
         <v>0.401626210152792</v>
       </c>
-      <c r="M8" s="17" t="n">
+      <c r="M8" s="16" t="n">
         <v>1.09012828470044</v>
       </c>
-      <c r="N8" s="17" t="n">
+      <c r="N8" s="16" t="n">
         <v>1.43437932197426</v>
       </c>
-      <c r="O8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17" t="n">
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
         <v>0.0573751728789703</v>
       </c>
-      <c r="Q8" s="17" t="n">
+      <c r="Q8" s="16" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="16" t="n">
         <v>2.00813105076396</v>
       </c>
-      <c r="S8" s="17" t="n">
+      <c r="S8" s="16" t="n">
         <v>3.04088416258542</v>
       </c>
     </row>
@@ -7373,55 +8194,55 @@
       <c r="B9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="16" t="n">
         <v>0.745877247426614</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="16" t="n">
         <v>23.6385712261358</v>
       </c>
-      <c r="E9" s="17" t="n">
+      <c r="E9" s="16" t="n">
         <v>0.401626210152792</v>
       </c>
-      <c r="F9" s="17" t="n">
+      <c r="F9" s="16" t="n">
         <v>2.18025656940087</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="G9" s="16" t="n">
         <v>7.05714626411334</v>
       </c>
-      <c r="H9" s="17" t="n">
+      <c r="H9" s="16" t="n">
         <v>4.8195145218335</v>
       </c>
-      <c r="I9" s="17" t="n">
+      <c r="I9" s="16" t="n">
         <v>19.7944346432447</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="J9" s="16" t="n">
         <v>8.72102627760348</v>
       </c>
-      <c r="K9" s="17" t="n">
+      <c r="K9" s="16" t="n">
         <v>3.72938623713307</v>
       </c>
-      <c r="L9" s="17" t="n">
+      <c r="L9" s="16" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="M9" s="17" t="n">
+      <c r="M9" s="16" t="n">
         <v>0.975377938942494</v>
       </c>
-      <c r="N9" s="17" t="n">
+      <c r="N9" s="16" t="n">
         <v>1.66388001349014</v>
       </c>
-      <c r="O9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17" t="n">
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
         <v>0.0573751728789703</v>
       </c>
-      <c r="Q9" s="17" t="n">
+      <c r="Q9" s="16" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="16" t="n">
         <v>1.66388001349014</v>
       </c>
-      <c r="S9" s="17" t="n">
+      <c r="S9" s="16" t="n">
         <v>3.09825933546439</v>
       </c>
     </row>
@@ -7432,55 +8253,55 @@
       <c r="B10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="16" t="n">
         <v>0.516376555910732</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="16" t="n">
         <v>23.4090705346199</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="16" t="n">
         <v>0.516376555910732</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F10" s="16" t="n">
         <v>2.06550622364293</v>
       </c>
-      <c r="G10" s="17" t="n">
+      <c r="G10" s="16" t="n">
         <v>6.59814488108158</v>
       </c>
-      <c r="H10" s="17" t="n">
+      <c r="H10" s="16" t="n">
         <v>5.68014211501806</v>
       </c>
-      <c r="I10" s="17" t="n">
+      <c r="I10" s="16" t="n">
         <v>20.8271877550662</v>
       </c>
-      <c r="J10" s="17" t="n">
+      <c r="J10" s="16" t="n">
         <v>9.00790214199833</v>
       </c>
-      <c r="K10" s="17" t="n">
+      <c r="K10" s="16" t="n">
         <v>4.01626210152792</v>
       </c>
-      <c r="L10" s="17" t="n">
+      <c r="L10" s="16" t="n">
         <v>0.229500691515881</v>
       </c>
-      <c r="M10" s="17" t="n">
+      <c r="M10" s="16" t="n">
         <v>1.09012828470044</v>
       </c>
-      <c r="N10" s="17" t="n">
+      <c r="N10" s="16" t="n">
         <v>1.77863035924808</v>
       </c>
-      <c r="O10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="17" t="n">
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
         <v>0.0573751728789703</v>
       </c>
-      <c r="Q10" s="17" t="n">
+      <c r="Q10" s="16" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="R10" s="17" t="n">
+      <c r="R10" s="16" t="n">
         <v>1.43437932197426</v>
       </c>
-      <c r="S10" s="17" t="n">
+      <c r="S10" s="16" t="n">
         <v>3.32776002698028</v>
       </c>
     </row>
@@ -7491,55 +8312,55 @@
       <c r="B11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="C11" s="16" t="n">
         <v>0.516376555910732</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="16" t="n">
         <v>24.1549477820465</v>
       </c>
-      <c r="E11" s="17" t="n">
+      <c r="E11" s="16" t="n">
         <v>0.344251037273822</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="16" t="n">
         <v>2.18025656940087</v>
       </c>
-      <c r="G11" s="17" t="n">
+      <c r="G11" s="16" t="n">
         <v>7.11452143699231</v>
       </c>
-      <c r="H11" s="17" t="n">
+      <c r="H11" s="16" t="n">
         <v>5.27851590486527</v>
       </c>
-      <c r="I11" s="17" t="n">
+      <c r="I11" s="16" t="n">
         <v>23.179569843104</v>
       </c>
-      <c r="J11" s="17" t="n">
+      <c r="J11" s="16" t="n">
         <v>9.23740283351421</v>
       </c>
-      <c r="K11" s="17" t="n">
+      <c r="K11" s="16" t="n">
         <v>4.30313796592277</v>
       </c>
-      <c r="L11" s="17" t="n">
+      <c r="L11" s="16" t="n">
         <v>0.114750345757941</v>
       </c>
-      <c r="M11" s="17" t="n">
+      <c r="M11" s="16" t="n">
         <v>1.20487863045838</v>
       </c>
-      <c r="N11" s="17" t="n">
+      <c r="N11" s="16" t="n">
         <v>2.00813105076396</v>
       </c>
-      <c r="O11" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17" t="n">
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
         <v>0.0573751728789703</v>
       </c>
-      <c r="Q11" s="17" t="n">
+      <c r="Q11" s="16" t="n">
         <v>0.344251037273822</v>
       </c>
-      <c r="R11" s="17" t="n">
+      <c r="R11" s="16" t="n">
         <v>1.31962897621632</v>
       </c>
-      <c r="S11" s="17" t="n">
+      <c r="S11" s="16" t="n">
         <v>2.92613381682748</v>
       </c>
     </row>
@@ -7550,55 +8371,55 @@
       <c r="B12" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="16" t="n">
         <v>0.97441437244232</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="16" t="n">
         <v>24.6003628774258</v>
       </c>
-      <c r="E12" s="17" t="n">
+      <c r="E12" s="16" t="n">
         <v>0.744913680926439</v>
       </c>
-      <c r="F12" s="17" t="n">
+      <c r="F12" s="16" t="n">
         <v>3.09575406256394</v>
       </c>
-      <c r="G12" s="17" t="n">
+      <c r="G12" s="16" t="n">
         <v>8.48516604718645</v>
       </c>
-      <c r="H12" s="17" t="n">
+      <c r="H12" s="16" t="n">
         <v>6.07743227592006</v>
       </c>
-      <c r="I12" s="17" t="n">
+      <c r="I12" s="16" t="n">
         <v>25.2278282263938</v>
       </c>
-      <c r="J12" s="17" t="n">
+      <c r="J12" s="16" t="n">
         <v>12.3255447207268</v>
       </c>
-      <c r="K12" s="17" t="n">
+      <c r="K12" s="16" t="n">
         <v>4.52974795793813</v>
       </c>
-      <c r="L12" s="17" t="n">
+      <c r="L12" s="16" t="n">
         <v>0.171932805336876</v>
       </c>
-      <c r="M12" s="17" t="n">
+      <c r="M12" s="16" t="n">
         <v>1.49079092835305</v>
       </c>
-      <c r="N12" s="17" t="n">
+      <c r="N12" s="16" t="n">
         <v>2.6374271760823</v>
       </c>
-      <c r="O12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="17" t="n">
+      <c r="O12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="n">
         <v>0.0573751728789703</v>
       </c>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="16" t="n">
         <v>0.286875864394851</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="16" t="n">
         <v>1.60544491746098</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="16" t="n">
         <v>2.92449575377719</v>
       </c>
     </row>
@@ -7609,55 +8430,55 @@
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="17" t="n">
+      <c r="C13" s="16" t="n">
         <v>1.37517337274496</v>
       </c>
-      <c r="D13" s="17" t="n">
+      <c r="D13" s="16" t="n">
         <v>22.8114223566258</v>
       </c>
-      <c r="E13" s="17" t="n">
+      <c r="E13" s="16" t="n">
         <v>1.0882975083501</v>
       </c>
-      <c r="F13" s="17" t="n">
+      <c r="F13" s="16" t="n">
         <v>3.20905905857162</v>
       </c>
-      <c r="G13" s="17" t="n">
+      <c r="G13" s="16" t="n">
         <v>9.05438901342534</v>
       </c>
-      <c r="H13" s="17" t="n">
+      <c r="H13" s="16" t="n">
         <v>6.41753997724314</v>
       </c>
-      <c r="I13" s="17" t="n">
+      <c r="I13" s="16" t="n">
         <v>27.2785918825841</v>
       </c>
-      <c r="J13" s="17" t="n">
+      <c r="J13" s="16" t="n">
         <v>12.8358508076864</v>
       </c>
-      <c r="K13" s="17" t="n">
+      <c r="K13" s="16" t="n">
         <v>5.04313745769832</v>
       </c>
-      <c r="L13" s="17" t="n">
+      <c r="L13" s="16" t="n">
         <v>0.114557632457906</v>
       </c>
-      <c r="M13" s="17" t="n">
+      <c r="M13" s="16" t="n">
         <v>1.37546244269501</v>
       </c>
-      <c r="N13" s="17" t="n">
+      <c r="N13" s="16" t="n">
         <v>2.69345335586103</v>
       </c>
-      <c r="O13" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="17" t="n">
+      <c r="O13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="16" t="n">
         <v>1.8910681454056</v>
       </c>
-      <c r="S13" s="17" t="n">
+      <c r="S13" s="16" t="n">
         <v>2.86548251784792</v>
       </c>
     </row>
@@ -7668,55 +8489,55 @@
       <c r="B14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="16" t="n">
         <v>1.48924922195277</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="16" t="n">
         <v>21.4222772696284</v>
       </c>
-      <c r="E14" s="17" t="n">
+      <c r="E14" s="16" t="n">
         <v>1.31741277326592</v>
       </c>
-      <c r="F14" s="17" t="n">
+      <c r="F14" s="16" t="n">
         <v>3.09305607636345</v>
       </c>
-      <c r="G14" s="17" t="n">
+      <c r="G14" s="16" t="n">
         <v>8.76365888302979</v>
       </c>
-      <c r="H14" s="17" t="n">
+      <c r="H14" s="16" t="n">
         <v>6.30066978518482</v>
       </c>
-      <c r="I14" s="17" t="n">
+      <c r="I14" s="16" t="n">
         <v>26.5773707302341</v>
       </c>
-      <c r="J14" s="17" t="n">
+      <c r="J14" s="16" t="n">
         <v>11.9712725918511</v>
       </c>
-      <c r="K14" s="17" t="n">
+      <c r="K14" s="16" t="n">
         <v>4.92597819568995</v>
       </c>
-      <c r="L14" s="17" t="n">
+      <c r="L14" s="16" t="n">
         <v>0.114557632457906</v>
       </c>
-      <c r="M14" s="17" t="n">
+      <c r="M14" s="16" t="n">
         <v>1.37469158949487</v>
       </c>
-      <c r="N14" s="17" t="n">
+      <c r="N14" s="16" t="n">
         <v>2.63482554653183</v>
       </c>
-      <c r="O14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="17" t="n">
+      <c r="O14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="16" t="n">
         <v>0.0572788162289529</v>
       </c>
-      <c r="Q14" s="17" t="n">
+      <c r="Q14" s="16" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="R14" s="17" t="n">
+      <c r="R14" s="16" t="n">
         <v>1.9474797517844</v>
       </c>
-      <c r="S14" s="17" t="n">
+      <c r="S14" s="16" t="n">
         <v>3.26489252505031</v>
       </c>
     </row>
@@ -7727,55 +8548,55 @@
       <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="16" t="n">
         <v>0.973739875892199</v>
       </c>
-      <c r="D15" s="17" t="n">
+      <c r="D15" s="16" t="n">
         <v>19.9330280476756</v>
       </c>
-      <c r="E15" s="17" t="n">
+      <c r="E15" s="16" t="n">
         <v>0.973739875892198</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="16" t="n">
         <v>2.34843146538707</v>
       </c>
-      <c r="G15" s="17" t="n">
+      <c r="G15" s="16" t="n">
         <v>7.61808255845073</v>
       </c>
-      <c r="H15" s="17" t="n">
+      <c r="H15" s="16" t="n">
         <v>5.38420872552157</v>
       </c>
-      <c r="I15" s="17" t="n">
+      <c r="I15" s="16" t="n">
         <v>24.8017274271366</v>
       </c>
-      <c r="J15" s="17" t="n">
+      <c r="J15" s="16" t="n">
         <v>7.84719782336654</v>
       </c>
-      <c r="K15" s="17" t="n">
+      <c r="K15" s="16" t="n">
         <v>4.52502648208728</v>
       </c>
-      <c r="L15" s="17" t="n">
+      <c r="L15" s="16" t="n">
         <v>0.0572788162289529</v>
       </c>
-      <c r="M15" s="17" t="n">
+      <c r="M15" s="16" t="n">
         <v>1.31741277326592</v>
       </c>
-      <c r="N15" s="17" t="n">
+      <c r="N15" s="16" t="n">
         <v>2.46298909784497</v>
       </c>
-      <c r="O15" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="17" t="n">
+      <c r="O15" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="16" t="n">
         <v>0.0572788162289529</v>
       </c>
-      <c r="Q15" s="17" t="n">
+      <c r="Q15" s="16" t="n">
         <v>0.286394081144764</v>
       </c>
-      <c r="R15" s="17" t="n">
+      <c r="R15" s="16" t="n">
         <v>1.48924922195277</v>
       </c>
-      <c r="S15" s="17" t="n">
+      <c r="S15" s="16" t="n">
         <v>3.09305607636345</v>
       </c>
     </row>
@@ -7786,55 +8607,55 @@
       <c r="B16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="16" t="n">
         <v>0.744624610976387</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="16" t="n">
         <v>21.7086713507731</v>
       </c>
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="16" t="n">
         <v>1.0882975083501</v>
       </c>
-      <c r="F16" s="17" t="n">
+      <c r="F16" s="16" t="n">
         <v>1.9474797517844</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="G16" s="16" t="n">
         <v>7.84719782336654</v>
       </c>
-      <c r="H16" s="17" t="n">
+      <c r="H16" s="16" t="n">
         <v>3.95223831979775</v>
       </c>
-      <c r="I16" s="17" t="n">
+      <c r="I16" s="16" t="n">
         <v>23.026084124039</v>
       </c>
-      <c r="J16" s="17" t="n">
+      <c r="J16" s="16" t="n">
         <v>6.24339096895586</v>
       </c>
-      <c r="K16" s="17" t="n">
+      <c r="K16" s="16" t="n">
         <v>4.23863240094251</v>
       </c>
-      <c r="L16" s="17" t="n">
+      <c r="L16" s="16" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="M16" s="17" t="n">
+      <c r="M16" s="16" t="n">
         <v>1.20285514080801</v>
       </c>
-      <c r="N16" s="17" t="n">
+      <c r="N16" s="16" t="n">
         <v>2.80666199521869</v>
       </c>
-      <c r="O16" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="17" t="n">
+      <c r="O16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="16" t="n">
         <v>0.0572788162289529</v>
       </c>
-      <c r="Q16" s="17" t="n">
+      <c r="Q16" s="16" t="n">
         <v>0.343672897373717</v>
       </c>
-      <c r="R16" s="17" t="n">
+      <c r="R16" s="16" t="n">
         <v>0.80190342720534</v>
       </c>
-      <c r="S16" s="17" t="n">
+      <c r="S16" s="16" t="n">
         <v>2.57754673030288</v>
       </c>
     </row>
@@ -7856,8 +8677,8 @@
   </sheetPr>
   <dimension ref="A1:BR18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC20" activeCellId="0" sqref="AC20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y24" activeCellId="0" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7969,7 +8790,7 @@
         <v>TM_067  Media móvil centrada (3 meses)</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>2018</v>
       </c>
@@ -7994,36 +8815,30 @@
       <c r="H2" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="O2" s="14" t="n">
+      <c r="O2" s="17" t="n">
         <v>2.40975726091675</v>
       </c>
-      <c r="P2" s="14" t="n">
+      <c r="P2" s="17" t="n">
         <v>2.06550622364293</v>
       </c>
-      <c r="Q2" s="14" t="n">
+      <c r="Q2" s="17" t="n">
         <v>4.30313796592277</v>
       </c>
-      <c r="R2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="14" t="n">
+      <c r="R2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="17" t="n">
         <v>0.516376555910732</v>
       </c>
-      <c r="T2" s="14" t="n">
+      <c r="T2" s="17" t="n">
         <v>5.85226763365497</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
       <c r="AM2" s="13"/>
@@ -8102,63 +8917,63 @@
       <c r="N3" s="4" t="n">
         <v>2691</v>
       </c>
-      <c r="O3" s="14" t="n">
+      <c r="O3" s="17" t="n">
         <v>1.20487863045838</v>
       </c>
-      <c r="P3" s="14" t="n">
+      <c r="P3" s="17" t="n">
         <v>0.860627593184554</v>
       </c>
-      <c r="Q3" s="14" t="n">
+      <c r="Q3" s="17" t="n">
         <v>2.40975726091675</v>
       </c>
-      <c r="R3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="14" t="n">
+      <c r="R3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17" t="n">
         <v>3.44251037273822</v>
       </c>
-      <c r="U3" s="14" t="n">
+      <c r="U3" s="17" t="n">
         <v>1.0978237109605</v>
       </c>
-      <c r="V3" s="14" t="n">
+      <c r="V3" s="17" t="n">
         <v>2.81624951973492</v>
       </c>
-      <c r="W3" s="14" t="n">
+      <c r="W3" s="17" t="n">
         <v>3.39405147287202</v>
       </c>
-      <c r="X3" s="14" t="n">
+      <c r="X3" s="17" t="n">
         <v>0.308161041673122</v>
       </c>
-      <c r="Y3" s="14" t="n">
+      <c r="Y3" s="17" t="n">
         <v>0.43870148293743</v>
       </c>
-      <c r="Z3" s="14" t="n">
+      <c r="Z3" s="17" t="n">
         <v>5.75875946626646</v>
       </c>
-      <c r="AA3" s="14" t="n">
+      <c r="AA3" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C2</f>
         <v>1.31962897621632</v>
       </c>
-      <c r="AB3" s="14" t="n">
+      <c r="AB3" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D2</f>
         <v>1.31962897621632</v>
       </c>
-      <c r="AC3" s="14" t="n">
+      <c r="AC3" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E2</f>
         <v>2.58188277955366</v>
       </c>
-      <c r="AD3" s="14" t="n">
+      <c r="AD3" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F2</f>
         <v>0.0573751728789703</v>
       </c>
-      <c r="AE3" s="14" t="n">
+      <c r="AE3" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G2</f>
         <v>0.172125518636911</v>
       </c>
-      <c r="AF3" s="14" t="n">
+      <c r="AF3" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H2</f>
         <v>3.95888692864895</v>
       </c>
@@ -8240,63 +9055,63 @@
       <c r="N4" s="4" t="n">
         <v>2537</v>
       </c>
-      <c r="O4" s="14" t="n">
+      <c r="O4" s="17" t="n">
         <v>0.344251037273822</v>
       </c>
-      <c r="P4" s="14" t="n">
+      <c r="P4" s="17" t="n">
         <v>1.03275311182146</v>
       </c>
-      <c r="Q4" s="14" t="n">
+      <c r="Q4" s="17" t="n">
         <v>1.03275311182146</v>
       </c>
-      <c r="R4" s="14" t="n">
+      <c r="R4" s="17" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="S4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="14" t="n">
+      <c r="S4" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17" t="n">
         <v>2.58188277955366</v>
       </c>
-      <c r="U4" s="14" t="n">
+      <c r="U4" s="17" t="n">
         <v>0.545701844629486</v>
       </c>
-      <c r="V4" s="14" t="n">
+      <c r="V4" s="17" t="n">
         <v>2.51664850699716</v>
       </c>
-      <c r="W4" s="14" t="n">
+      <c r="W4" s="17" t="n">
         <v>3.06663036609433</v>
       </c>
-      <c r="X4" s="14" t="n">
+      <c r="X4" s="17" t="n">
         <v>0.284620962100869</v>
       </c>
-      <c r="Y4" s="14" t="n">
+      <c r="Y4" s="17" t="n">
         <v>0.436561475703589</v>
       </c>
-      <c r="Z4" s="14" t="n">
+      <c r="Z4" s="17" t="n">
         <v>5.42919835225493</v>
       </c>
-      <c r="AA4" s="14" t="n">
+      <c r="AA4" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C3</f>
         <v>0.573751728789703</v>
       </c>
-      <c r="AB4" s="14" t="n">
+      <c r="AB4" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D3</f>
         <v>0.918002766063524</v>
       </c>
-      <c r="AC4" s="14" t="n">
+      <c r="AC4" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E3</f>
         <v>2.1228813965219</v>
       </c>
-      <c r="AD4" s="14" t="n">
+      <c r="AD4" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F3</f>
         <v>0.0573751728789703</v>
       </c>
-      <c r="AE4" s="14" t="n">
+      <c r="AE4" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G3</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="14" t="n">
+      <c r="AF4" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H3</f>
         <v>2.52450760667469</v>
       </c>
@@ -8360,51 +9175,51 @@
       <c r="H5" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="O5" s="14" t="n">
+      <c r="O5" s="17" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="P5" s="14" t="n">
+      <c r="P5" s="17" t="n">
         <v>0.860627593184554</v>
       </c>
-      <c r="Q5" s="14" t="n">
+      <c r="Q5" s="17" t="n">
         <v>2.92613381682748</v>
       </c>
-      <c r="R5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="14" t="n">
+      <c r="R5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17" t="n">
         <v>1.5491296677322</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14" t="n">
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C4</f>
         <v>0.172125518636911</v>
       </c>
-      <c r="AB5" s="14" t="n">
+      <c r="AB5" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D4</f>
         <v>0.975377938942495</v>
       </c>
-      <c r="AC5" s="14" t="n">
+      <c r="AC5" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E4</f>
         <v>2.06550622364293</v>
       </c>
-      <c r="AD5" s="14" t="n">
+      <c r="AD5" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F4</f>
         <v>0.0573751728789703</v>
       </c>
-      <c r="AE5" s="14" t="n">
+      <c r="AE5" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G4</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="14" t="n">
+      <c r="AF5" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H4</f>
         <v>1.83600553212705</v>
       </c>
@@ -8468,51 +9283,51 @@
       <c r="H6" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="O6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14" t="n">
+      <c r="O6" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17" t="n">
         <v>1.03275311182146</v>
       </c>
-      <c r="Q6" s="14" t="n">
+      <c r="Q6" s="17" t="n">
         <v>2.23763174227984</v>
       </c>
-      <c r="R6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="14" t="n">
+      <c r="R6" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="17" t="n">
         <v>1.37700414909529</v>
       </c>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14" t="n">
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C5</f>
         <v>0.0573751728789703</v>
       </c>
-      <c r="AB6" s="14" t="n">
+      <c r="AB6" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D5</f>
         <v>0.860627593184554</v>
       </c>
-      <c r="AC6" s="14" t="n">
+      <c r="AC6" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E5</f>
         <v>2.00813105076396</v>
       </c>
-      <c r="AD6" s="14" t="n">
+      <c r="AD6" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F5</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="14" t="n">
+      <c r="AE6" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G5</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="14" t="n">
+      <c r="AF6" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H5</f>
         <v>1.66388001349014</v>
       </c>
@@ -8576,51 +9391,51 @@
       <c r="H7" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="O7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="14" t="n">
+      <c r="O7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17" t="n">
         <v>0.688502074547643</v>
       </c>
-      <c r="Q7" s="14" t="n">
+      <c r="Q7" s="17" t="n">
         <v>0.860627593184554</v>
       </c>
-      <c r="R7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="14" t="n">
+      <c r="R7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17" t="n">
         <v>2.06550622364293</v>
       </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14" t="n">
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C6</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="14" t="n">
+      <c r="AB7" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D6</f>
         <v>0.631126901668673</v>
       </c>
-      <c r="AC7" s="14" t="n">
+      <c r="AC7" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E6</f>
         <v>1.66388001349014</v>
       </c>
-      <c r="AD7" s="14" t="n">
+      <c r="AD7" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F6</f>
         <v>0.0573751728789703</v>
       </c>
-      <c r="AE7" s="14" t="n">
+      <c r="AE7" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G6</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="14" t="n">
+      <c r="AF7" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H6</f>
         <v>1.5491296677322</v>
       </c>
@@ -8684,51 +9499,51 @@
       <c r="H8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="O8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14" t="n">
+      <c r="O8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="Q8" s="14" t="n">
+      <c r="Q8" s="17" t="n">
         <v>1.89338070500602</v>
       </c>
-      <c r="R8" s="14" t="n">
+      <c r="R8" s="17" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="S8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="14" t="n">
+      <c r="S8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17" t="n">
         <v>1.20487863045838</v>
       </c>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14" t="n">
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C7</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="14" t="n">
+      <c r="AB8" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D7</f>
         <v>0.573751728789703</v>
       </c>
-      <c r="AC8" s="14" t="n">
+      <c r="AC8" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E7</f>
         <v>1.5491296677322</v>
       </c>
-      <c r="AD8" s="14" t="n">
+      <c r="AD8" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F7</f>
         <v>0.0573751728789703</v>
       </c>
-      <c r="AE8" s="14" t="n">
+      <c r="AE8" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G7</f>
         <v>0.0573751728789703</v>
       </c>
-      <c r="AF8" s="14" t="n">
+      <c r="AF8" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H7</f>
         <v>1.49175449485323</v>
       </c>
@@ -8792,51 +9607,51 @@
       <c r="H9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="O9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="14" t="n">
+      <c r="O9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17" t="n">
         <v>0.860627593184554</v>
       </c>
-      <c r="Q9" s="14" t="n">
+      <c r="Q9" s="17" t="n">
         <v>1.89338070500602</v>
       </c>
-      <c r="R9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="14" t="n">
+      <c r="R9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="17" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="T9" s="14" t="n">
+      <c r="T9" s="17" t="n">
         <v>1.20487863045838</v>
       </c>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14" t="n">
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C8</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="14" t="n">
+      <c r="AB9" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D8</f>
         <v>0.516376555910732</v>
       </c>
-      <c r="AC9" s="14" t="n">
+      <c r="AC9" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E8</f>
         <v>1.66388001349014</v>
       </c>
-      <c r="AD9" s="14" t="n">
+      <c r="AD9" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F8</f>
         <v>0.0573751728789703</v>
       </c>
-      <c r="AE9" s="14" t="n">
+      <c r="AE9" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G8</f>
         <v>0.114750345757941</v>
       </c>
-      <c r="AF9" s="14" t="n">
+      <c r="AF9" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H8</f>
         <v>1.49175449485323</v>
       </c>
@@ -8900,51 +9715,51 @@
       <c r="H10" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="O10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14" t="n">
+      <c r="O10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17" t="n">
         <v>0.516376555910732</v>
       </c>
-      <c r="Q10" s="14" t="n">
+      <c r="Q10" s="17" t="n">
         <v>1.20487863045838</v>
       </c>
-      <c r="R10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="14" t="n">
+      <c r="R10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="T10" s="14" t="n">
+      <c r="T10" s="17" t="n">
         <v>2.06550622364293</v>
       </c>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14" t="n">
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C9</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="14" t="n">
+      <c r="AB10" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D9</f>
         <v>0.688502074547643</v>
       </c>
-      <c r="AC10" s="14" t="n">
+      <c r="AC10" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E9</f>
         <v>1.83600553212705</v>
       </c>
-      <c r="AD10" s="14" t="n">
+      <c r="AD10" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F9</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="14" t="n">
+      <c r="AE10" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G9</f>
         <v>0.114750345757941</v>
       </c>
-      <c r="AF10" s="14" t="n">
+      <c r="AF10" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H9</f>
         <v>1.43437932197426</v>
       </c>
@@ -9008,51 +9823,51 @@
       <c r="H11" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="O11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="14" t="n">
+      <c r="O11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="17" t="n">
         <v>0.688502074547643</v>
       </c>
-      <c r="Q11" s="14" t="n">
+      <c r="Q11" s="17" t="n">
         <v>2.40975726091675</v>
       </c>
-      <c r="R11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="14" t="n">
+      <c r="R11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="17" t="n">
         <v>1.03275311182146</v>
       </c>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14" t="n">
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C10</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="14" t="n">
+      <c r="AB11" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D10</f>
         <v>0.631126901668673</v>
       </c>
-      <c r="AC11" s="14" t="n">
+      <c r="AC11" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E10</f>
         <v>1.72125518636911</v>
       </c>
-      <c r="AD11" s="14" t="n">
+      <c r="AD11" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F10</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="14" t="n">
+      <c r="AE11" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G10</f>
         <v>0.229500691515881</v>
       </c>
-      <c r="AF11" s="14" t="n">
+      <c r="AF11" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H10</f>
         <v>1.95075587788499</v>
       </c>
@@ -9116,51 +9931,51 @@
       <c r="H12" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="O12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="14" t="n">
+      <c r="O12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17" t="n">
         <v>0.688502074547643</v>
       </c>
-      <c r="Q12" s="14" t="n">
+      <c r="Q12" s="17" t="n">
         <v>1.5491296677322</v>
       </c>
-      <c r="R12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="14" t="n">
+      <c r="R12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="17" t="n">
         <v>0.516376555910732</v>
       </c>
-      <c r="T12" s="14" t="n">
+      <c r="T12" s="17" t="n">
         <v>2.75400829819057</v>
       </c>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14" t="n">
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C11</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="14" t="n">
+      <c r="AB12" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D11</f>
         <v>0.459001383031762</v>
       </c>
-      <c r="AC12" s="14" t="n">
+      <c r="AC12" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E11</f>
         <v>1.95075587788499</v>
       </c>
-      <c r="AD12" s="14" t="n">
+      <c r="AD12" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F11</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="14" t="n">
+      <c r="AE12" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G11</f>
         <v>0.229500691515881</v>
       </c>
-      <c r="AF12" s="14" t="n">
+      <c r="AF12" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H11</f>
         <v>2.06550622364293</v>
       </c>
@@ -9224,51 +10039,51 @@
       <c r="H13" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="O13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14" t="n">
+      <c r="O13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="17" t="n">
         <v>1.89338070500602</v>
       </c>
-      <c r="R13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="14" t="n">
+      <c r="R13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="17" t="n">
         <v>0.172125518636911</v>
       </c>
-      <c r="T13" s="14" t="n">
+      <c r="T13" s="17" t="n">
         <v>2.40975726091675</v>
       </c>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14" t="n">
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C12</f>
         <v>1.14557632457906</v>
       </c>
-      <c r="AB13" s="14" t="n">
+      <c r="AB13" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D12</f>
         <v>1.5469134647818</v>
       </c>
-      <c r="AC13" s="14" t="n">
+      <c r="AC13" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E12</f>
         <v>2.92314676067694</v>
       </c>
-      <c r="AD13" s="14" t="n">
+      <c r="AD13" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F12</f>
         <v>0.114557632457906</v>
       </c>
-      <c r="AE13" s="14" t="n">
+      <c r="AE13" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G12</f>
         <v>0.573173588889598</v>
       </c>
-      <c r="AF13" s="14" t="n">
+      <c r="AF13" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H12</f>
         <v>3.03866795963502</v>
       </c>
@@ -9356,64 +10171,64 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
-      <c r="AA14" s="14" t="n">
+      <c r="AA14" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C13</f>
         <v>1.77564330309754</v>
       </c>
-      <c r="AB14" s="14" t="n">
+      <c r="AB14" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D13</f>
         <v>1.89020093555544</v>
       </c>
-      <c r="AC14" s="14" t="n">
+      <c r="AC14" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E13</f>
         <v>3.49506771311632</v>
       </c>
-      <c r="AD14" s="14" t="n">
+      <c r="AD14" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F13</f>
         <v>0.343672897373717</v>
       </c>
-      <c r="AE14" s="14" t="n">
+      <c r="AE14" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G13</f>
         <v>0.45832688648164</v>
       </c>
-      <c r="AF14" s="14" t="n">
+      <c r="AF14" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H13</f>
         <v>3.15168388569265</v>
       </c>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="16"/>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="16"/>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="16"/>
-      <c r="AW14" s="16"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="16"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="16"/>
-      <c r="BF14" s="16"/>
-      <c r="BG14" s="16"/>
-      <c r="BH14" s="16"/>
-      <c r="BI14" s="16"/>
-      <c r="BJ14" s="16"/>
-      <c r="BK14" s="16"/>
-      <c r="BL14" s="16"/>
-      <c r="BM14" s="16"/>
-      <c r="BN14" s="16"/>
-      <c r="BO14" s="16"/>
-      <c r="BP14" s="16"/>
-      <c r="BQ14" s="16"/>
-      <c r="BR14" s="16"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="15"/>
+      <c r="BO14" s="15"/>
+      <c r="BP14" s="15"/>
+      <c r="BQ14" s="15"/>
+      <c r="BR14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
@@ -9458,63 +10273,63 @@
       <c r="N15" s="4" t="n">
         <v>2242</v>
       </c>
-      <c r="O15" s="14" t="n">
+      <c r="O15" s="17" t="n">
         <v>1.89020093555544</v>
       </c>
-      <c r="P15" s="14" t="n">
+      <c r="P15" s="17" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="Q15" s="14" t="n">
+      <c r="Q15" s="17" t="n">
         <v>3.26489252505031</v>
       </c>
-      <c r="R15" s="14" t="n">
+      <c r="R15" s="17" t="n">
         <v>0.687345794747434</v>
       </c>
-      <c r="S15" s="14" t="n">
+      <c r="S15" s="17" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="T15" s="14" t="n">
+      <c r="T15" s="17" t="n">
         <v>3.09305607636345</v>
       </c>
-      <c r="U15" s="14" t="n">
+      <c r="U15" s="17" t="n">
         <v>1.32695275924446</v>
       </c>
-      <c r="V15" s="14" t="n">
+      <c r="V15" s="17" t="n">
         <v>2.36516059807732</v>
       </c>
-      <c r="W15" s="14" t="n">
+      <c r="W15" s="17" t="n">
         <v>2.93628106565613</v>
       </c>
-      <c r="X15" s="14" t="n">
+      <c r="X15" s="17" t="n">
         <v>0.265390551848891</v>
       </c>
-      <c r="Y15" s="14" t="n">
+      <c r="Y15" s="17" t="n">
         <v>0.471333620083631</v>
       </c>
-      <c r="Z15" s="14" t="n">
+      <c r="Z15" s="17" t="n">
         <v>4.76004493796171</v>
       </c>
-      <c r="AA15" s="14" t="n">
+      <c r="AA15" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C14</f>
         <v>2.11931620047126</v>
       </c>
-      <c r="AB15" s="14" t="n">
+      <c r="AB15" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D14</f>
         <v>2.57754673030288</v>
       </c>
-      <c r="AC15" s="14" t="n">
+      <c r="AC15" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E14</f>
         <v>3.32217134127927</v>
       </c>
-      <c r="AD15" s="14" t="n">
+      <c r="AD15" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F14</f>
         <v>0.40095171360267</v>
       </c>
-      <c r="AE15" s="14" t="n">
+      <c r="AE15" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G14</f>
         <v>0.515509346060576</v>
       </c>
-      <c r="AF15" s="14" t="n">
+      <c r="AF15" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H14</f>
         <v>3.0357772601345</v>
       </c>
@@ -9596,63 +10411,63 @@
       <c r="N16" s="4" t="n">
         <v>1850</v>
       </c>
-      <c r="O16" s="14" t="n">
+      <c r="O16" s="17" t="n">
         <v>1.03101869212115</v>
       </c>
-      <c r="P16" s="14" t="n">
+      <c r="P16" s="17" t="n">
         <v>2.0620373842423</v>
       </c>
-      <c r="Q16" s="14" t="n">
+      <c r="Q16" s="17" t="n">
         <v>1.37469158949487</v>
       </c>
-      <c r="R16" s="14" t="n">
+      <c r="R16" s="17" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="S16" s="14" t="n">
+      <c r="S16" s="17" t="n">
         <v>0.343672897373717</v>
       </c>
-      <c r="T16" s="14" t="n">
+      <c r="T16" s="17" t="n">
         <v>2.0620373842423</v>
       </c>
-      <c r="U16" s="14" t="n">
+      <c r="U16" s="17" t="n">
         <v>0.605090458215472</v>
       </c>
-      <c r="V16" s="14" t="n">
+      <c r="V16" s="17" t="n">
         <v>1.98936757665929</v>
       </c>
-      <c r="W16" s="14" t="n">
+      <c r="W16" s="17" t="n">
         <v>2.53925680009019</v>
       </c>
-      <c r="X16" s="14" t="n">
+      <c r="X16" s="17" t="n">
         <v>0.208066192649531</v>
       </c>
-      <c r="Y16" s="14" t="n">
+      <c r="Y16" s="17" t="n">
         <v>0.441609878276555</v>
       </c>
-      <c r="Z16" s="14" t="n">
+      <c r="Z16" s="17" t="n">
         <v>3.92778016736359</v>
       </c>
-      <c r="AA16" s="14" t="n">
+      <c r="AA16" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C15</f>
         <v>0.973739875892198</v>
       </c>
-      <c r="AB16" s="14" t="n">
+      <c r="AB16" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D15</f>
         <v>1.66108567063963</v>
       </c>
-      <c r="AC16" s="14" t="n">
+      <c r="AC16" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E15</f>
         <v>2.46298909784497</v>
       </c>
-      <c r="AD16" s="14" t="n">
+      <c r="AD16" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F15</f>
         <v>0.286394081144764</v>
       </c>
-      <c r="AE16" s="14" t="n">
+      <c r="AE16" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G15</f>
         <v>0.171836448686859</v>
       </c>
-      <c r="AF16" s="14" t="n">
+      <c r="AF16" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H15</f>
         <v>2.29115264915811</v>
       </c>
@@ -9716,51 +10531,51 @@
       <c r="H17" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="O17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="14" t="n">
+      <c r="O17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="17" t="n">
         <v>1.20285514080801</v>
       </c>
-      <c r="Q17" s="14" t="n">
+      <c r="Q17" s="17" t="n">
         <v>2.74938317898974</v>
       </c>
-      <c r="R17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="14" t="n">
+      <c r="R17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="17" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14" t="n">
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!C16</f>
         <v>0.343672897373717</v>
       </c>
-      <c r="AB17" s="14" t="n">
+      <c r="AB17" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!D16</f>
         <v>1.60380685441068</v>
       </c>
-      <c r="AC17" s="14" t="n">
+      <c r="AC17" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!E16</f>
         <v>1.9474797517844</v>
       </c>
-      <c r="AD17" s="14" t="n">
+      <c r="AD17" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!F16</f>
         <v>0.0572788162289529</v>
       </c>
-      <c r="AE17" s="14" t="n">
+      <c r="AE17" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!G16</f>
         <v>0.171836448686859</v>
       </c>
-      <c r="AF17" s="14" t="n">
+      <c r="AF17" s="4" t="n">
         <f aca="false">Causas_media_movil3m_respirator!H16</f>
         <v>2.11931620047126</v>
       </c>
@@ -9824,36 +10639,30 @@
       <c r="H18" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="O18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="14" t="n">
+      <c r="O18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17" t="n">
         <v>1.54652803818173</v>
       </c>
-      <c r="Q18" s="14" t="n">
+      <c r="Q18" s="17" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="R18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="14" t="n">
+      <c r="R18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="17" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="T18" s="14" t="n">
+      <c r="T18" s="17" t="n">
         <v>2.57754673030288</v>
       </c>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
       <c r="AK18" s="13"/>
       <c r="AL18" s="13"/>
       <c r="AM18" s="13"/>
@@ -9908,12 +10717,12 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/etl/data/input/Datos_carga_mensual_demo.xlsx
+++ b/etl/data/input/Datos_carga_mensual_demo.xlsx
@@ -234,193 +234,193 @@
     <t xml:space="preserve">TM_090-102 Media móvil centrada (3 meses)</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Cantabria</t>
+    <t xml:space="preserve">Virus identificado Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Cantabria</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Cantabria</t>
+    <t xml:space="preserve">Otras causas Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_España</t>
+    <t xml:space="preserve">Virus identificado España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_España</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) España</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_España</t>
+    <t xml:space="preserve">Otras causas España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_Cantabria</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_Cantabria</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_Cantabria</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000 Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000.España</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000.España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_España</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 España</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_España</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000 España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_Mujeres Cantabria</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 Mujeres Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_Hombres Cantabria</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 Hombres Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_Mujeres Cantabria</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 Mujeres Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_Hombres Cantabria</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 Hombres Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_Mujeres Cantabria</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000 Mujeres Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_Hombres Cantabria</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000 Hombres Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_Mujeres España</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 Mujeres España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_Hombres España</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 Hombres España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_Mujeres España</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 Mujeres España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_Hombres España</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 Hombres España</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_Mujeres España</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000 Mujeres España</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_Hombres España</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000 Hombres España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_Hasta 64  años_Cantabria</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 Hasta 64 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_65-74 años_Cantabria</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 65-74 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_De 75 a 79 años_Cantabria</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 De 75 a 79 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_De 80 a 84 años_Cantabria</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 De 80 a 84 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_De 85 y +_Cantabria</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 De 85 y + Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_Hasta 64  años_Cantabria</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 Hasta 64 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_65-74 años_Cantabria</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 65-74 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_De 75 a 79 años_Cantabria</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 De 75 a 79 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_De 80 a 84 años_Cantabria</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 De 80 a 84 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_De 85 y +_Cantabria</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 De 85 y + Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_ Hasta 64  años_Cantabria</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000  Hasta 64 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_ 65-74 años_Cantabria</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000  65-74 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_ De 75 a 79 años_Cantabria</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000  De 75 a 79 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_ De 80 a 84 años_Cantabria</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000  De 80 a 84 años Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_  De 85 y +_Cantabria</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000   De 85 y + Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_Hasta 64  años_España</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 Hasta 64 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_65-74 años_España</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 65-74 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_De 75 a 79 años_España</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 De 75 a 79 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_De 80 a 84 años_España</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 De 80 a 84 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus identificado_Tanto x 1.000_De 85 y +_España</t>
+    <t xml:space="preserve">Virus identificado Tanto x 1.000 De 85 y + España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_Hasta 64  años_España</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 Hasta 64 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_65-74 años_España</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 65-74 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_De 75 a 79 años_España</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 De 75 a 79 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_De 80 a 84 años_España</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 De 80 a 84 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19_Virus no identificado (sospechoso)_Tanto x 1.000_De 85 y +_España</t>
+    <t xml:space="preserve">Virus no identificado (sospechoso) Tanto x 1.000 De 85 y + España</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_ Hasta 64  años_España</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000  Hasta 64 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_ 65-74 años_España</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000  65-74 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_ De 75 a 79 años_España</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000  De 75 a 79 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_ De 80 a 84 años_España</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000  De 80 a 84 años España</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras causas_Tanto x 1000_  De 85 y +_España</t>
+    <t xml:space="preserve">Otras causas Tanto x 1000   De 85 y + España</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 – 1</t>
+    <t xml:space="preserve">2020 – 01</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 – 2</t>
+    <t xml:space="preserve">2020 – 02</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 – 3</t>
+    <t xml:space="preserve">2020 – 03</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 – 4</t>
+    <t xml:space="preserve">2020 – 04</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 – 5</t>
+    <t xml:space="preserve">2020 – 05</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 – 6</t>
+    <t xml:space="preserve">2020 – 06</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 – 7</t>
+    <t xml:space="preserve">2020 – 07</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 – 8</t>
+    <t xml:space="preserve">2020 – 08</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 – 9</t>
+    <t xml:space="preserve">2020 – 09</t>
   </si>
   <si>
     <t xml:space="preserve">2020 – 10</t>
@@ -575,7 +575,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -664,16 +664,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2860,7 +2852,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
@@ -8148,7 +8140,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -10234,10 +10226,10 @@
   <dimension ref="A1:BC17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -12228,49 +12220,49 @@
       <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="108" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>145</v>
       </c>
     </row>
@@ -15033,7 +15025,7 @@
       <c r="J64" s="5" t="n">
         <v>77463</v>
       </c>
-      <c r="K64" s="24" t="n">
+      <c r="K64" s="4" t="n">
         <v>-10.36</v>
       </c>
       <c r="L64" s="5" t="n">
@@ -15077,7 +15069,7 @@
       <c r="J65" s="5" t="n">
         <v>104815</v>
       </c>
-      <c r="K65" s="24" t="n">
+      <c r="K65" s="4" t="n">
         <v>-7.76</v>
       </c>
       <c r="L65" s="5" t="n">
@@ -15121,7 +15113,7 @@
       <c r="J66" s="5" t="n">
         <v>132483</v>
       </c>
-      <c r="K66" s="24" t="n">
+      <c r="K66" s="4" t="n">
         <v>-6.76</v>
       </c>
       <c r="L66" s="5" t="n">
@@ -15165,7 +15157,7 @@
       <c r="J67" s="5" t="n">
         <v>160161</v>
       </c>
-      <c r="K67" s="24" t="n">
+      <c r="K67" s="4" t="n">
         <v>-5.95</v>
       </c>
       <c r="L67" s="5" t="n">
@@ -15209,7 +15201,7 @@
       <c r="J68" s="5" t="n">
         <v>190680</v>
       </c>
-      <c r="K68" s="24" t="n">
+      <c r="K68" s="4" t="n">
         <v>-4.8</v>
       </c>
       <c r="L68" s="5" t="n">
@@ -15253,7 +15245,7 @@
       <c r="J69" s="5" t="n">
         <v>220688</v>
       </c>
-      <c r="K69" s="24" t="n">
+      <c r="K69" s="4" t="n">
         <v>-4.01</v>
       </c>
       <c r="L69" s="5" t="n">
@@ -15297,7 +15289,7 @@
       <c r="J70" s="5" t="n">
         <v>251197</v>
       </c>
-      <c r="K70" s="24" t="n">
+      <c r="K70" s="4" t="n">
         <v>-3.46</v>
       </c>
       <c r="L70" s="5" t="n">
@@ -15341,7 +15333,7 @@
       <c r="J71" s="5" t="n">
         <v>281712</v>
       </c>
-      <c r="K71" s="24" t="n">
+      <c r="K71" s="4" t="n">
         <v>-3.01</v>
       </c>
       <c r="L71" s="5" t="n">
